--- a/data/MagnetStrengthLimits.xlsx
+++ b/data/MagnetStrengthLimits.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28609"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365.sharepoint.com/sites/AFSGcopy/Delade dokument/General/WP 03.0 Magnets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43DD1D4D-1D46-4225-BBCE-28F96B9B23C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="2955" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="2955" windowHeight="11850" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -20,20 +19,21 @@
     <sheet name="dip_gradient" sheetId="18" r:id="rId5"/>
     <sheet name="QFend-Qdend" sheetId="9" r:id="rId6"/>
     <sheet name="QF-QFm" sheetId="7" r:id="rId7"/>
-    <sheet name="ReverseBend" sheetId="20" r:id="rId8"/>
-    <sheet name="Sdend" sheetId="11" r:id="rId9"/>
-    <sheet name="Sfm" sheetId="12" r:id="rId10"/>
-    <sheet name="Sd" sheetId="13" r:id="rId11"/>
-    <sheet name="SFI-SFO" sheetId="14" r:id="rId12"/>
-    <sheet name="OXX" sheetId="15" r:id="rId13"/>
-    <sheet name="OXY" sheetId="25" r:id="rId14"/>
-    <sheet name="OYY" sheetId="16" r:id="rId15"/>
-    <sheet name="SextTrimsQ" sheetId="19" r:id="rId16"/>
-    <sheet name="Sdend_CombQ" sheetId="23" r:id="rId17"/>
-    <sheet name="Sd_CombQ" sheetId="24" r:id="rId18"/>
-    <sheet name="Ver. 0.0 1st Draft" sheetId="5" r:id="rId19"/>
+    <sheet name="Xq" sheetId="26" r:id="rId8"/>
+    <sheet name="ReverseBend" sheetId="20" r:id="rId9"/>
+    <sheet name="Sdend" sheetId="11" r:id="rId10"/>
+    <sheet name="Sfm" sheetId="12" r:id="rId11"/>
+    <sheet name="Sd" sheetId="13" r:id="rId12"/>
+    <sheet name="SFI-SFO" sheetId="14" r:id="rId13"/>
+    <sheet name="OXX" sheetId="15" r:id="rId14"/>
+    <sheet name="OXY" sheetId="25" r:id="rId15"/>
+    <sheet name="OYY" sheetId="16" r:id="rId16"/>
+    <sheet name="SextTrimsQ" sheetId="19" r:id="rId17"/>
+    <sheet name="Sdend_CombQ" sheetId="23" r:id="rId18"/>
+    <sheet name="Sd_CombQ" sheetId="24" r:id="rId19"/>
+    <sheet name="Ver. 0.0 1st Draft" sheetId="5" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="232">
   <si>
     <t>Magnet Strength Limits</t>
   </si>
@@ -705,15 +705,9 @@
     <t>as built, measured @ max current (5 A)</t>
   </si>
   <si>
-    <t>From email from Alexey on 2024/05/21</t>
-  </si>
-  <si>
     <t>new coil design and power supplies</t>
   </si>
   <si>
-    <t>For now only a wish, no design made</t>
-  </si>
-  <si>
     <t>Quadrupole component in sextupole magnet Sdend</t>
   </si>
   <si>
@@ -814,12 +808,34 @@
   </si>
   <si>
     <t>modified pole tip  (2D modelling)</t>
+  </si>
+  <si>
+    <t>Updates to quadrupole components in sextupoles. Still Work In Progress, this is an updated guess based on more recent calculations</t>
+  </si>
+  <si>
+    <t>From email from Alexey on 2024/05/21.
+updated guestimate based on calculations February 2025</t>
+  </si>
+  <si>
+    <t>guesstimate</t>
+  </si>
+  <si>
+    <t>Xq (new magnet)</t>
+  </si>
+  <si>
+    <t>Added the magnet tye (X1) , an extra 5-cm long quadrupole to be installed rght downstream of the U1 and U2 blocks and right upsteam of the U4 and u5 blocks.</t>
+  </si>
+  <si>
+    <t>based o the maxium we can get from a Qfm with the present design  quad, scaled by the length</t>
+  </si>
+  <si>
+    <t>based o the maxium we can get from a Qfm with thicker pole roots, scaled by the length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -828,7 +844,7 @@
     <numFmt numFmtId="168" formatCode="0.000000000"/>
     <numFmt numFmtId="169" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,7 +1128,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1261,6 +1277,12 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1360,9 +1382,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1639,14 +1661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1656,12 +1678,12 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="26.25">
+    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="18">
+    <row r="3" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1679,7 +1701,7 @@
       <c r="L3" s="67"/>
       <c r="M3" s="67"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75">
+    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
@@ -1689,7 +1711,7 @@
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="G5" s="66" t="s">
         <v>4</v>
@@ -1701,13 +1723,13 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
     </row>
-    <row r="6" spans="2:13" ht="21">
-      <c r="B6" s="80" t="s">
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
       <c r="G6" s="66" t="s">
         <v>6</v>
       </c>
@@ -1718,7 +1740,7 @@
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75">
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1732,7 +1754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="45">
+    <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>45380</v>
       </c>
@@ -1746,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>45382</v>
       </c>
@@ -1760,7 +1782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="30">
+    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>45389</v>
       </c>
@@ -1774,7 +1796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="45">
+    <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>45440</v>
       </c>
@@ -1788,7 +1810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="60">
+    <row r="12" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>45441</v>
       </c>
@@ -1802,7 +1824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="30">
+    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="52">
         <v>45442</v>
       </c>
@@ -1816,7 +1838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="60">
+    <row r="14" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>45444</v>
       </c>
@@ -1830,7 +1852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="30">
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>45445</v>
       </c>
@@ -1844,7 +1866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>45451</v>
       </c>
@@ -1858,7 +1880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30">
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>45454</v>
       </c>
@@ -1872,7 +1894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>45496</v>
       </c>
@@ -1886,7 +1908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="75">
+    <row r="19" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>45599</v>
       </c>
@@ -1900,7 +1922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="75">
+    <row r="20" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>45601</v>
       </c>
@@ -1914,7 +1936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30">
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>45603</v>
       </c>
@@ -1928,7 +1950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>45606</v>
       </c>
@@ -1942,7 +1964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30">
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>45613</v>
       </c>
@@ -1956,7 +1978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>45621</v>
       </c>
@@ -1970,7 +1992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>45622</v>
       </c>
@@ -1984,7 +2006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30">
+    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>45624</v>
       </c>
@@ -1998,7 +2020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30">
+    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>45628</v>
       </c>
@@ -2012,7 +2034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="60">
+    <row r="28" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>45633</v>
       </c>
@@ -2026,7 +2048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="45">
+    <row r="29" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>45683</v>
       </c>
@@ -2040,7 +2062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>45686</v>
       </c>
@@ -2054,7 +2076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>45699</v>
       </c>
@@ -2068,157 +2090,173 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="2:5">
+    <row r="32" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>45708</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>45711</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="9"/>
       <c r="D54" s="7"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="9"/>
       <c r="D55" s="7"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="9"/>
       <c r="D56" s="7"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="9"/>
       <c r="D57" s="7"/>
@@ -2234,14 +2272,490 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:N28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="53.42578125" style="15" customWidth="1"/>
+    <col min="11" max="12" width="22" style="15" customWidth="1"/>
+    <col min="13" max="14" width="17.7109375" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="2:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+    </row>
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="97">
+        <v>0.1026</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45">
+        <v>173.70699999999999</v>
+      </c>
+      <c r="H7" s="45">
+        <f>G7/D$7</f>
+        <v>1693.0506822612085</v>
+      </c>
+      <c r="I7" s="46">
+        <v>1</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="44">
+        <f>F7/C$7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
+        <f>G7/C$7</f>
+        <v>1737.07</v>
+      </c>
+      <c r="M7" s="51">
+        <f>K7/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="51">
+        <f>L7/Info!H$3</f>
+        <v>173.55726867317028</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="94"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0</v>
+      </c>
+      <c r="G8" s="45">
+        <v>192.03</v>
+      </c>
+      <c r="H8" s="45">
+        <f t="shared" ref="H8:H12" si="0">G8/D$7</f>
+        <v>1871.6374269005848</v>
+      </c>
+      <c r="I8" s="46">
+        <v>1</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="44">
+        <f t="shared" ref="K8:K10" si="1">F8/C$7</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
+        <f t="shared" ref="L8:L10" si="2">G8/C$7</f>
+        <v>1920.3</v>
+      </c>
+      <c r="M8" s="51">
+        <f>K8/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="51">
+        <f>L8/Info!H$3</f>
+        <v>191.86447468040373</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="94"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45">
+        <v>210.60400000000001</v>
+      </c>
+      <c r="H9" s="45">
+        <f t="shared" si="0"/>
+        <v>2052.6705653021445</v>
+      </c>
+      <c r="I9" s="46">
+        <v>1</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
+        <f t="shared" si="2"/>
+        <v>2106.04</v>
+      </c>
+      <c r="M9" s="51">
+        <f>K9/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="51">
+        <f>L9/Info!H$3</f>
+        <v>210.42246433157189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="94"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0</v>
+      </c>
+      <c r="G10" s="45">
+        <v>232.00399999999999</v>
+      </c>
+      <c r="H10" s="45">
+        <f t="shared" si="0"/>
+        <v>2261.2475633528265</v>
+      </c>
+      <c r="I10" s="46">
+        <v>2</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="45">
+        <f t="shared" si="2"/>
+        <v>2320.04</v>
+      </c>
+      <c r="M10" s="51">
+        <f>K10/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="51">
+        <f>L10/Info!H$3</f>
+        <v>231.80401803755865</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="94"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0</v>
+      </c>
+      <c r="G11" s="45">
+        <f>G10*(D7+0.018)/D7</f>
+        <v>272.70645614035084</v>
+      </c>
+      <c r="H11" s="45">
+        <f t="shared" si="0"/>
+        <v>2657.9576621866554</v>
+      </c>
+      <c r="I11" s="46">
+        <v>3</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="44">
+        <f t="shared" ref="K11:K12" si="3">F11/C$7</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="45">
+        <f t="shared" ref="L11:L12" si="4">G11/C$7</f>
+        <v>2727.0645614035084</v>
+      </c>
+      <c r="M11" s="51">
+        <f>K11/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="51">
+        <f>L11/Info!H$3</f>
+        <v>272.47138962309521</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="95"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0</v>
+      </c>
+      <c r="G12" s="45">
+        <f>1.15*G10*(D7+0.018)/D7</f>
+        <v>313.61242456140349</v>
+      </c>
+      <c r="H12" s="45">
+        <f t="shared" si="0"/>
+        <v>3056.651311514654</v>
+      </c>
+      <c r="I12" s="46">
+        <v>4</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="45">
+        <f t="shared" si="4"/>
+        <v>3136.1242456140349</v>
+      </c>
+      <c r="M12" s="51">
+        <f>K12/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="51">
+        <f>L12/Info!H$3</f>
+        <v>313.34209806655952</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J13" s="40"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="H18" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="56">
+        <v>0</v>
+      </c>
+      <c r="E20" s="56">
+        <v>1.3205352050000001</v>
+      </c>
+      <c r="H20" s="56">
+        <v>0</v>
+      </c>
+      <c r="I20" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="56">
+        <v>18.638670000000001</v>
+      </c>
+      <c r="E21" s="56">
+        <v>48.828032460000003</v>
+      </c>
+      <c r="H21" s="56">
+        <v>56</v>
+      </c>
+      <c r="I21" s="56">
+        <v>142.5324</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="56">
+        <v>37.286619999999999</v>
+      </c>
+      <c r="E22" s="56">
+        <v>96.042909750000007</v>
+      </c>
+      <c r="H22" s="56">
+        <v>70</v>
+      </c>
+      <c r="I22" s="56">
+        <v>175.3176</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="56">
+        <v>55.938049999999997</v>
+      </c>
+      <c r="E23" s="56">
+        <v>142.47481060000001</v>
+      </c>
+      <c r="H23" s="56">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="I23" s="56">
+        <v>183.03319999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="56">
+        <v>74.584919999999997</v>
+      </c>
+      <c r="E24" s="56">
+        <v>182.07576420000001</v>
+      </c>
+      <c r="H24" s="56">
+        <v>82</v>
+      </c>
+      <c r="I24" s="56">
+        <v>192.6122</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="56">
+        <v>82.046189999999996</v>
+      </c>
+      <c r="E25" s="56">
+        <v>192.0789259</v>
+      </c>
+      <c r="H25" s="56">
+        <v>90</v>
+      </c>
+      <c r="I25" s="56">
+        <v>201.322</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="56">
+        <v>100</v>
+      </c>
+      <c r="I26" s="56">
+        <v>210.60400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="56">
+        <v>110</v>
+      </c>
+      <c r="I27" s="56">
+        <v>218.58199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="56">
+        <v>130</v>
+      </c>
+      <c r="I28" s="56">
+        <v>232.00399999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -2258,10 +2772,10 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75">
+    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -2274,10 +2788,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>105</v>
       </c>
@@ -2300,7 +2814,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21">
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -2319,14 +2833,14 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="98" t="s">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.10299999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -2363,10 +2877,10 @@
         <v>171.3991305420987</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B8" s="98"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="100"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
         <v>112</v>
       </c>
@@ -2401,10 +2915,10 @@
         <v>190.01107364654368</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="98"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="100"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39" t="s">
         <v>113</v>
       </c>
@@ -2441,10 +2955,10 @@
         <v>208.55207795130983</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="100"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39" t="s">
         <v>115</v>
       </c>
@@ -2481,10 +2995,10 @@
         <v>224.34045700093614</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="98"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="100"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="39" t="s">
         <v>128</v>
       </c>
@@ -2522,10 +3036,10 @@
         <v>246.12108389423091</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75">
-      <c r="B12" s="98"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="100"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="50" t="s">
         <v>129</v>
       </c>
@@ -2554,17 +3068,17 @@
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J15" s="71" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J16" s="40" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="10:11">
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J17" s="40" t="s">
         <v>133</v>
       </c>
@@ -2584,15 +3098,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="B4:N14"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:N18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28:U35"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -2609,10 +3123,10 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75">
+    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -2625,10 +3139,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>105</v>
       </c>
@@ -2651,7 +3165,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21">
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -2670,14 +3184,14 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75">
-      <c r="B7" s="99" t="s">
+    <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.10199999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -2716,10 +3230,10 @@
         <v>117.68047470086607</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="101"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
         <v>138</v>
       </c>
@@ -2754,10 +3268,10 @@
         <v>138.76428527580683</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="101"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39" t="s">
         <v>139</v>
       </c>
@@ -2794,10 +3308,10 @@
         <v>192.00495348652811</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39" t="s">
         <v>115</v>
       </c>
@@ -2834,7 +3348,7 @@
         <v>213.03021457328333</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="45.75">
+    <row r="11" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="B11" s="70"/>
       <c r="C11" s="69"/>
       <c r="D11" s="69"/>
@@ -2875,7 +3389,7 @@
         <v>275.68616003601375</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75">
+    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B12" s="70"/>
       <c r="C12" s="69"/>
       <c r="D12" s="69"/>
@@ -2916,7 +3430,7 @@
         <v>317.03908404141583</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="45.75">
+    <row r="13" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -2957,8 +3471,11 @@
         <v>437.12964617831568</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J14" s="40"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2972,15 +3489,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -2997,10 +3514,10 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75">
+    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -3013,10 +3530,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>105</v>
       </c>
@@ -3039,7 +3556,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21">
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -3058,14 +3575,14 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="99" t="s">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.10340000000000001</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -3102,10 +3619,10 @@
         <v>210.21864017474846</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="101"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
         <v>147</v>
       </c>
@@ -3140,10 +3657,10 @@
         <v>220.50976181828409</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="101"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39" t="s">
         <v>113</v>
       </c>
@@ -3180,10 +3697,10 @@
         <v>236.71178400969916</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39" t="s">
         <v>115</v>
       </c>
@@ -3220,10 +3737,10 @@
         <v>258.08534461149679</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="99"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="101"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="39" t="s">
         <v>148</v>
       </c>
@@ -3261,10 +3778,10 @@
         <v>283.04524254297615</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75">
-      <c r="B12" s="99"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="101"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="50" t="s">
         <v>149</v>
       </c>
@@ -3302,7 +3819,7 @@
         <v>325.50202892442252</v>
       </c>
     </row>
-    <row r="22" spans="4:12">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" s="56" t="s">
         <v>150</v>
       </c>
@@ -3311,7 +3828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="4:12" ht="30">
+    <row r="23" spans="4:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D23" s="58" t="s">
         <v>122</v>
       </c>
@@ -3326,7 +3843,7 @@
       </c>
       <c r="L23" s="56"/>
     </row>
-    <row r="24" spans="4:12">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" s="56">
         <v>0</v>
       </c>
@@ -3341,7 +3858,7 @@
       </c>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="4:12">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" s="56">
         <v>16.544709999999998</v>
       </c>
@@ -3356,7 +3873,7 @@
       </c>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="4:12">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" s="56">
         <v>19.628530000000001</v>
       </c>
@@ -3371,7 +3888,7 @@
       </c>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="4:12">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" s="56">
         <v>33.098700000000001</v>
       </c>
@@ -3386,7 +3903,7 @@
       </c>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="4:12">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" s="56">
         <v>39.270159999999997</v>
       </c>
@@ -3401,7 +3918,7 @@
       </c>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="4:12">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" s="56">
         <v>49.655290000000001</v>
       </c>
@@ -3416,7 +3933,7 @@
       </c>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="4:12">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="56">
         <v>58.90842</v>
       </c>
@@ -3431,7 +3948,7 @@
       </c>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="4:12">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" s="56">
         <v>66.216239999999999</v>
       </c>
@@ -3446,7 +3963,7 @@
       </c>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="4:12">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" s="56">
         <v>72.838589999999996</v>
       </c>
@@ -3454,7 +3971,7 @@
         <v>200.1782</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="56">
         <v>78.549310000000006</v>
       </c>
@@ -3462,7 +3979,7 @@
         <v>211.68530000000001</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="56">
         <v>86.402140000000003</v>
       </c>
@@ -3482,15 +3999,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -3507,10 +4024,10 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75">
+    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -3523,10 +4040,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>152</v>
       </c>
@@ -3549,7 +4066,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21">
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -3568,14 +4085,14 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="45.75">
-      <c r="B7" s="99" t="s">
+    <row r="7" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.1008</v>
       </c>
       <c r="E7" s="39" t="s">
@@ -3614,10 +4131,10 @@
         <v>3483.6584354345814</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+    <row r="8" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="101"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
         <v>159</v>
       </c>
@@ -3654,10 +4171,10 @@
         <v>5596.9522273743978</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="45.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+    <row r="9" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="101"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39" t="s">
         <v>161</v>
       </c>
@@ -3694,10 +4211,10 @@
         <v>6590.1696373624545</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="60.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:14" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39" t="s">
         <v>163</v>
       </c>
@@ -3735,10 +4252,10 @@
         <v>8237.7120467030672</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="73" t="s">
         <v>165</v>
       </c>
@@ -3759,7 +4276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="40" t="s">
         <v>169</v>
       </c>
@@ -3774,20 +4291,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="40"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="40"/>
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E16" s="40"/>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="40"/>
     </row>
-    <row r="22" spans="8:8">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" s="40"/>
     </row>
   </sheetData>
@@ -3802,15 +4319,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -3827,10 +4344,10 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75">
+    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -3843,10 +4360,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>152</v>
       </c>
@@ -3869,7 +4386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21">
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -3888,14 +4405,14 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="45.75">
-      <c r="B7" s="91" t="s">
+    <row r="7" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="97">
         <v>0.1</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="97">
         <v>0.1008</v>
       </c>
       <c r="E7" s="39" t="s">
@@ -3934,10 +4451,10 @@
         <v>6590.1705280820133</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="45.75">
-      <c r="B8" s="93"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
+    <row r="8" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="95"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
       <c r="E8" s="39" t="s">
         <v>163</v>
       </c>
@@ -3975,7 +4492,7 @@
         <v>8237.7131601025158</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
         <v>165</v>
       </c>
@@ -3995,7 +4512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" s="40" t="s">
         <v>175</v>
       </c>
@@ -4010,21 +4527,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E15" s="40"/>
       <c r="J15" s="15">
         <f>107*G8/G7</f>
         <v>133.75</v>
       </c>
     </row>
-    <row r="17" spans="7:8">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="76"/>
       <c r="H17" s="40"/>
     </row>
-    <row r="21" spans="7:8">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H21" s="40"/>
     </row>
   </sheetData>
@@ -4039,15 +4556,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -4064,10 +4581,10 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75">
+    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -4080,10 +4597,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>152</v>
       </c>
@@ -4106,7 +4623,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21">
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4125,14 +4642,14 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="99" t="s">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.1</v>
       </c>
       <c r="E7" s="39" t="s">
@@ -4171,10 +4688,10 @@
         <v>2527.9329870534089</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="101"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
         <v>179</v>
       </c>
@@ -4211,10 +4728,10 @@
         <v>6590.1705280820115</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="101"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39" t="s">
         <v>181</v>
       </c>
@@ -4252,7 +4769,7 @@
         <v>8237.7131601025158</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
         <v>165</v>
       </c>
@@ -4270,17 +4787,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I14" s="40"/>
       <c r="J14" s="15">
         <f>58.3/94.9</f>
         <v>0.61433087460484714</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E15" s="40" t="s">
         <v>185</v>
       </c>
@@ -4301,15 +4818,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -4325,10 +4842,10 @@
     <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:12" ht="56.25">
+    <row r="5" spans="2:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -4341,10 +4858,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>77</v>
       </c>
@@ -4361,7 +4878,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="21">
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4378,14 +4895,14 @@
       <c r="K6" s="48"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="2:12" ht="18.75">
-      <c r="B7" s="99" t="s">
+    <row r="7" spans="2:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.1</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -4395,17 +4912,17 @@
         <v>0</v>
       </c>
       <c r="G7" s="51">
-        <v>0.28999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="45">
         <f>G7/D$7</f>
-        <v>2.8999999999999995</v>
+        <v>1</v>
       </c>
       <c r="I7" s="46">
         <v>1</v>
       </c>
-      <c r="J7" s="41" t="s">
-        <v>190</v>
+      <c r="J7" s="50" t="s">
+        <v>226</v>
       </c>
       <c r="K7" s="60">
         <f>F7/Info!H$3</f>
@@ -4413,45 +4930,43 @@
       </c>
       <c r="L7" s="61">
         <f>G7/Info!H$3</f>
-        <v>2.8975002685683007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+        <v>9.9913802364424171E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="101"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
       </c>
-      <c r="G8" s="45">
-        <v>1</v>
+      <c r="G8" s="51">
+        <v>0.28999999999999998</v>
       </c>
       <c r="H8" s="45">
         <f>G8/D$7</f>
-        <v>10</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="I8" s="46">
         <v>2</v>
       </c>
-      <c r="J8" s="41" t="s">
-        <v>192</v>
-      </c>
+      <c r="J8" s="41"/>
       <c r="K8" s="60">
         <f>F8/Info!H$3</f>
         <v>0</v>
       </c>
       <c r="L8" s="61">
         <f>G8/Info!H$3</f>
-        <v>9.9913802364424167E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="18.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+        <v>2.8975002685683007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="101"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
@@ -4461,10 +4976,10 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
@@ -4486,15 +5001,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -4510,15 +5025,15 @@
     <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:12" ht="56.25">
+    <row r="5" spans="2:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -4531,10 +5046,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>77</v>
       </c>
@@ -4551,7 +5066,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="21">
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4568,14 +5083,14 @@
       <c r="K6" s="48"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="2:12" ht="18.75">
-      <c r="B7" s="99" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="94">
+    <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.1</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -4585,17 +5100,17 @@
         <v>0</v>
       </c>
       <c r="G7" s="51">
-        <v>0.28999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="45">
         <f>G7/D$7</f>
-        <v>2.8999999999999995</v>
+        <v>1</v>
       </c>
       <c r="I7" s="46">
         <v>1</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K7" s="60">
         <f>F7/Info!H$3</f>
@@ -4603,31 +5118,31 @@
       </c>
       <c r="L7" s="61">
         <f>G7/Info!H$3</f>
-        <v>2.8975002685683007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+        <v>9.9913802364424171E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="101"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
       </c>
-      <c r="G8" s="45">
-        <v>1</v>
+      <c r="G8" s="51">
+        <v>0.28999999999999998</v>
       </c>
       <c r="H8" s="45">
         <f>G8/D$7</f>
-        <v>10</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="I8" s="46">
         <v>2</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K8" s="60">
         <f>F8/Info!H$3</f>
@@ -4635,13 +5150,13 @@
       </c>
       <c r="L8" s="61">
         <f>G8/Info!H$3</f>
-        <v>9.9913802364424167E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="18.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+        <v>2.8975002685683007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="101"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
@@ -4651,10 +5166,10 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
@@ -4676,15 +5191,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -4700,15 +5215,15 @@
     <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:12" ht="56.25">
+    <row r="5" spans="2:12" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -4721,10 +5236,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>77</v>
       </c>
@@ -4741,7 +5256,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="21">
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4758,14 +5273,14 @@
       <c r="K6" s="48"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="2:12" ht="18.75">
-      <c r="B7" s="99" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="94">
+    <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.1</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -4775,17 +5290,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="51">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H7" s="45">
-        <f>G7/D$7</f>
-        <v>2.8999999999999995</v>
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0.1</v>
       </c>
       <c r="I7" s="46">
         <v>1</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="K7" s="60">
         <f>F7/Info!H$3</f>
@@ -4793,31 +5307,30 @@
       </c>
       <c r="L7" s="61">
         <f>G7/Info!H$3</f>
-        <v>2.8975002685683007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+        <v>9.9913802364424171E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="101"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
       </c>
-      <c r="G8" s="45">
-        <v>1</v>
-      </c>
-      <c r="H8" s="45">
-        <f>G8/D$7</f>
-        <v>10</v>
+      <c r="G8" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0.15</v>
       </c>
       <c r="I8" s="46">
         <v>2</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="K8" s="60">
         <f>F8/Info!H$3</f>
@@ -4825,13 +5338,13 @@
       </c>
       <c r="L8" s="61">
         <f>G8/Info!H$3</f>
-        <v>9.9913802364424167E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="18.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+        <v>1.4987070354663625E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="101"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
@@ -4841,10 +5354,10 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
@@ -4866,15 +5379,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" style="15" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="64">
+        <v>0.26198062393930399</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="63">
+        <v>393</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="2:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="86"/>
+      <c r="F5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0</v>
+      </c>
+      <c r="E7" s="61">
+        <f>D2</f>
+        <v>0.26198062393930399</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1</v>
+      </c>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="2:9" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="87"/>
+      <c r="C8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="61">
+        <f>D2*450/D3</f>
+        <v>0.29997781367095877</v>
+      </c>
+      <c r="F8" s="46">
+        <v>2</v>
+      </c>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -4884,7 +5530,7 @@
     <col min="9" max="9" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:13" ht="56.25">
+    <row r="5" spans="2:13" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>42</v>
       </c>
@@ -4894,25 +5540,25 @@
       <c r="D5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="103"/>
+      <c r="E5" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="105"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="104" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="106">
         <v>0.15</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -4937,9 +5583,9 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="2:13" ht="30">
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+    <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="11" t="s">
         <v>93</v>
       </c>
@@ -4962,9 +5608,9 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="2:13" ht="30">
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
+    <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="11" t="s">
         <v>86</v>
       </c>
@@ -4987,9 +5633,9 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="30">
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
+    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="11" t="s">
         <v>87</v>
       </c>
@@ -5012,9 +5658,9 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="2:13" ht="30">
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
+    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="11" t="s">
         <v>88</v>
       </c>
@@ -5037,9 +5683,9 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="2:13" ht="30">
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
+    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="11" t="s">
         <v>89</v>
       </c>
@@ -5062,9 +5708,9 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="2:13" ht="30">
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
+    <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="11" t="s">
         <v>90</v>
       </c>
@@ -5087,7 +5733,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="20"/>
@@ -5101,11 +5747,11 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="105" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="105">
+      <c r="C14" s="107">
         <v>0.25</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -5130,11 +5776,11 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="2:13" ht="30">
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15" s="12">
         <f>E14*0.25/0.15</f>
@@ -5151,16 +5797,16 @@
         <v>55</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="18"/>
       <c r="E16" s="14"/>
       <c r="F16" s="13"/>
@@ -5172,7 +5818,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="18"/>
@@ -5186,11 +5832,11 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="105" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="107">
         <v>0.1</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -5208,7 +5854,7 @@
         <v>1707.55</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -5216,9 +5862,9 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="11" t="s">
         <v>112</v>
       </c>
@@ -5234,7 +5880,7 @@
         <v>2000.7999999999997</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -5242,9 +5888,9 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="2:13" ht="30">
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
+    <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="11" t="s">
         <v>113</v>
       </c>
@@ -5260,19 +5906,19 @@
         <v>2440</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="20" t="s">
         <v>115</v>
       </c>
@@ -5288,17 +5934,17 @@
         <v>3171.9999999999995</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="20"/>
@@ -5312,15 +5958,15 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="105">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="107">
         <v>0.1</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="23">
         <v>170.19300000000001</v>
@@ -5333,7 +5979,7 @@
         <v>1701.93</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -5341,9 +5987,9 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="11" t="s">
         <v>112</v>
       </c>
@@ -5359,7 +6005,7 @@
         <v>2120.5938000000001</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -5367,9 +6013,9 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="2:13" ht="30">
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
+    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="11" t="s">
         <v>113</v>
       </c>
@@ -5385,19 +6031,19 @@
         <v>2586.09</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="20" t="s">
         <v>115</v>
       </c>
@@ -5413,17 +6059,17 @@
         <v>3361.9169999999999</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="11"/>
@@ -5437,11 +6083,11 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="105" t="s">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="105">
+      <c r="C28" s="107">
         <v>0.1</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -5458,7 +6104,7 @@
         <v>1177.82</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -5466,11 +6112,11 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E29" s="23">
         <f>2.1*66.6666666666667</f>
@@ -5484,7 +6130,7 @@
         <v>1400.0000000000007</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -5492,9 +6138,9 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="2:13" ht="30">
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
+    <row r="30" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="11" t="s">
         <v>139</v>
       </c>
@@ -5510,19 +6156,19 @@
         <v>2102.1021021021033</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="20" t="s">
         <v>115</v>
       </c>
@@ -5538,17 +6184,17 @@
         <v>2219.5121951219526</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
       <c r="D32" s="18"/>
@@ -5562,11 +6208,11 @@
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
     </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="105">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="107">
         <v>0.1</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -5583,7 +6229,7 @@
         <v>2104</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -5591,9 +6237,9 @@
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
     </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="11" t="s">
         <v>147</v>
       </c>
@@ -5609,7 +6255,7 @@
         <v>2350.0800000000004</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -5617,9 +6263,9 @@
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="2:13" ht="30">
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
+    <row r="35" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="11" t="s">
         <v>113</v>
       </c>
@@ -5635,19 +6281,19 @@
         <v>2720.0000000000005</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="20" t="s">
         <v>115</v>
       </c>
@@ -5663,17 +6309,17 @@
         <v>3725.7365853658539</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
       <c r="C37" s="27"/>
       <c r="D37" s="11"/>
@@ -5687,28 +6333,28 @@
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="105">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="107">
         <v>0.1</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E38" s="23">
         <v>6589.73</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G38" s="23">
         <f>E38/C$38</f>
         <v>65897.299999999988</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
@@ -5716,34 +6362,34 @@
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E39" s="23">
         <v>6589.73</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G39" s="23">
         <f>E39/C$38</f>
         <v>65897.299999999988</v>
       </c>
       <c r="H39" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="11"/>
@@ -5757,28 +6403,28 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
     </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="104" t="s">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="104">
+      <c r="C41" s="106">
         <v>0.1</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E41" s="23">
         <v>2850.71</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G41" s="23">
         <f>E41/C$38</f>
         <v>28507.1</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -5786,34 +6432,34 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E42" s="23">
         <v>2850.71</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G42" s="23">
         <f>E42/C$38</f>
         <v>28507.1</v>
       </c>
       <c r="H42" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="11"/>
@@ -5827,8 +6473,8 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="108" t="s">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="110" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="28"/>
@@ -5849,11 +6495,11 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="2:13" ht="30">
-      <c r="B45" s="109"/>
+    <row r="45" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="111"/>
       <c r="C45" s="28"/>
       <c r="D45" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="19"/>
@@ -5861,21 +6507,21 @@
         <v>4</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="2:13" ht="30">
-      <c r="B46" s="109"/>
+    <row r="46" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="111"/>
       <c r="C46" s="28"/>
       <c r="D46" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="19"/>
@@ -5883,21 +6529,21 @@
         <v>10</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="109"/>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="111"/>
       <c r="C47" s="28"/>
       <c r="D47" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="19"/>
@@ -5909,11 +6555,11 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="109"/>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="111"/>
       <c r="C48" s="28"/>
       <c r="D48" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="19"/>
@@ -5930,11 +6576,11 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="109"/>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="111"/>
       <c r="C49" s="28"/>
       <c r="D49" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="19"/>
@@ -5951,11 +6597,11 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="109"/>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="111"/>
       <c r="C50" s="28"/>
       <c r="D50" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="19"/>
@@ -5967,11 +6613,11 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="109"/>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="111"/>
       <c r="C51" s="28"/>
       <c r="D51" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="19"/>
@@ -5988,11 +6634,11 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="109"/>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="111"/>
       <c r="C52" s="28"/>
       <c r="D52" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="19"/>
@@ -6009,11 +6655,11 @@
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="2:13" ht="30">
-      <c r="B53" s="109"/>
+    <row r="53" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="111"/>
       <c r="C53" s="28"/>
       <c r="D53" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="19"/>
@@ -6024,18 +6670,18 @@
         <v>55</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="109"/>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="111"/>
       <c r="C54" s="28"/>
       <c r="D54" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="19"/>
@@ -6052,11 +6698,11 @@
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="110"/>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="112"/>
       <c r="C55" s="28"/>
       <c r="D55" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="19"/>
@@ -6073,8 +6719,8 @@
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="111" t="s">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="113" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="28"/>
@@ -6095,11 +6741,11 @@
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="2:13" ht="30">
-      <c r="B57" s="111"/>
+    <row r="57" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="113"/>
       <c r="C57" s="28"/>
       <c r="D57" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="19"/>
@@ -6107,7 +6753,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -6115,11 +6761,11 @@
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="2:13" ht="30">
-      <c r="B58" s="111"/>
+    <row r="58" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="113"/>
       <c r="C58" s="28"/>
       <c r="D58" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="19"/>
@@ -6127,21 +6773,21 @@
         <v>10</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="2:13">
-      <c r="B59" s="111"/>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="113"/>
       <c r="C59" s="28"/>
       <c r="D59" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="19"/>
@@ -6153,11 +6799,11 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="2:13">
-      <c r="B60" s="111"/>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="113"/>
       <c r="C60" s="28"/>
       <c r="D60" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="19"/>
@@ -6174,11 +6820,11 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="2:13">
-      <c r="B61" s="111"/>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="113"/>
       <c r="C61" s="28"/>
       <c r="D61" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="19"/>
@@ -6195,11 +6841,11 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="2:13">
-      <c r="B62" s="111"/>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="113"/>
       <c r="C62" s="28"/>
       <c r="D62" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="19"/>
@@ -6211,11 +6857,11 @@
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="2:13">
-      <c r="B63" s="111"/>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="113"/>
       <c r="C63" s="28"/>
       <c r="D63" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="19"/>
@@ -6232,11 +6878,11 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="2:13">
-      <c r="B64" s="111"/>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="113"/>
       <c r="C64" s="28"/>
       <c r="D64" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="19"/>
@@ -6253,11 +6899,11 @@
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="2:13">
-      <c r="B65" s="111"/>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="113"/>
       <c r="C65" s="28"/>
       <c r="D65" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="19"/>
@@ -6274,11 +6920,11 @@
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" spans="2:13">
-      <c r="B66" s="111"/>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="113"/>
       <c r="C66" s="28"/>
       <c r="D66" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="19"/>
@@ -6295,11 +6941,11 @@
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" spans="2:13">
-      <c r="B67" s="111"/>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="113"/>
       <c r="C67" s="28"/>
       <c r="D67" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="19"/>
@@ -6343,148 +6989,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="15" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="15.75">
-      <c r="C2" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="64">
-        <v>0.26198062393930399</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75">
-      <c r="C3" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="63">
-        <v>393</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="D4" s="40"/>
-    </row>
-    <row r="5" spans="2:9" ht="56.25" customHeight="1">
-      <c r="B5" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="21">
-      <c r="B6" s="35"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="51">
-        <v>0</v>
-      </c>
-      <c r="E7" s="61">
-        <f>D2</f>
-        <v>0.26198062393930399</v>
-      </c>
-      <c r="F7" s="46">
-        <v>1</v>
-      </c>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="2:9" ht="30.75">
-      <c r="B8" s="85"/>
-      <c r="C8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0</v>
-      </c>
-      <c r="E8" s="61">
-        <f>D2*450/D3</f>
-        <v>0.29997781367095877</v>
-      </c>
-      <c r="F8" s="46">
-        <v>2</v>
-      </c>
-      <c r="G8" s="50"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="E13" s="78"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:B8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -6498,7 +7011,7 @@
     <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75">
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="62" t="s">
         <v>52</v>
       </c>
@@ -6513,7 +7026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75">
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="62" t="s">
         <v>54</v>
       </c>
@@ -6528,24 +7041,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="2:11" ht="56.25" customHeight="1">
+    <row r="5" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="89"/>
+      <c r="F5" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="42" t="s">
         <v>45</v>
       </c>
@@ -6559,7 +7072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="21">
+    <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
@@ -6579,8 +7092,8 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
+    <row r="7" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -6617,8 +7130,8 @@
         <v>0.90678639999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30.75">
-      <c r="B8" s="85"/>
+    <row r="8" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="87"/>
       <c r="C8" s="39" t="s">
         <v>62</v>
       </c>
@@ -6653,8 +7166,8 @@
         <v>0.95910099999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="90.75" customHeight="1">
-      <c r="B9" s="85"/>
+    <row r="9" spans="2:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="87"/>
       <c r="C9" s="39" t="s">
         <v>64</v>
       </c>
@@ -6677,7 +7190,7 @@
       <c r="H9" s="46">
         <v>10</v>
       </c>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="90" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="59">
@@ -6689,8 +7202,8 @@
         <v>1.1363236827799998</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30.75">
-      <c r="B10" s="85"/>
+    <row r="10" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="87"/>
       <c r="C10" s="39" t="s">
         <v>66</v>
       </c>
@@ -6713,7 +7226,7 @@
       <c r="H10" s="46">
         <v>11</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="59">
         <f>D10/Info!H$3</f>
         <v>-8.7191000000000005E-2</v>
@@ -6723,19 +7236,19 @@
         <v>1.1886382827799999</v>
       </c>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
     </row>
@@ -6752,14 +7265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -6775,7 +7288,7 @@
     <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="62" t="s">
         <v>37</v>
       </c>
@@ -6790,7 +7303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="62" t="s">
         <v>39</v>
       </c>
@@ -6803,20 +7316,20 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="2:7" ht="56.25" customHeight="1">
+    <row r="5" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="86"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="42" t="s">
         <v>45</v>
       </c>
@@ -6824,7 +7337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="21">
+    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.3">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
@@ -6836,8 +7349,8 @@
       <c r="F6" s="42"/>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
+    <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -6855,8 +7368,8 @@
       </c>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="2:7" ht="30.75">
-      <c r="B8" s="85"/>
+    <row r="8" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="87"/>
       <c r="C8" s="39" t="s">
         <v>70</v>
       </c>
@@ -6872,8 +7385,8 @@
       </c>
       <c r="G8" s="50"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75">
-      <c r="B9" s="85"/>
+    <row r="9" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="87"/>
       <c r="C9" s="39" t="s">
         <v>71</v>
       </c>
@@ -6899,14 +7412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -6920,7 +7433,7 @@
     <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75">
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="62" t="s">
         <v>52</v>
       </c>
@@ -6934,7 +7447,7 @@
       <c r="G2" s="62"/>
       <c r="H2" s="75"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75">
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="62" t="s">
         <v>54</v>
       </c>
@@ -6948,24 +7461,24 @@
       <c r="G3" s="62"/>
       <c r="H3" s="75"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="2:11" ht="56.25" customHeight="1">
+    <row r="5" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="86" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="42" t="s">
         <v>45</v>
       </c>
@@ -6979,7 +7492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="21">
+    <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
@@ -6999,8 +7512,8 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
+    <row r="7" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -7037,8 +7550,8 @@
         <v>0.90054796875761156</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30.75">
-      <c r="B8" s="85"/>
+    <row r="8" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="87"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
@@ -7073,8 +7586,8 @@
         <v>0.95250265926285826</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30.75">
-      <c r="B9" s="85"/>
+    <row r="9" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="87"/>
       <c r="C9" s="39" t="s">
         <v>64</v>
       </c>
@@ -7109,8 +7622,8 @@
         <v>1.1285061006414492</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30.75">
-      <c r="B10" s="85"/>
+    <row r="10" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="87"/>
       <c r="C10" s="39" t="s">
         <v>66</v>
       </c>
@@ -7143,7 +7656,7 @@
         <v>1.180460791146696</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F15" s="77">
         <f>F7</f>
         <v>8.1952702869198522</v>
@@ -7153,7 +7666,7 @@
         <v>8.8782094774965064</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F16" s="77">
         <f t="shared" ref="F16:G16" si="0">F8</f>
         <v>7.6830658939873615</v>
@@ -7163,7 +7676,7 @@
         <v>9.3904138704289988</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="77">
         <f t="shared" ref="F17:G17" si="1">F9</f>
         <v>-0.34146959528832715</v>
@@ -7173,7 +7686,7 @@
         <v>11.125574545406867</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="77">
         <f t="shared" ref="F18:G18" si="2">F10</f>
         <v>-0.85367398822081797</v>
@@ -7195,14 +7708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N13"/>
   <sheetViews>
     <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -7219,10 +7732,10 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="56.25" customHeight="1">
+    <row r="5" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -7235,10 +7748,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>77</v>
       </c>
@@ -7261,7 +7774,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="45">
+    <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -7282,14 +7795,14 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75">
-      <c r="B7" s="91" t="s">
+    <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="96">
         <v>0.25</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.24399999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -7326,10 +7839,10 @@
         <v>3.5169658432277311</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75">
-      <c r="B8" s="92"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="94"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
         <v>85</v>
       </c>
@@ -7364,10 +7877,10 @@
         <v>3.840686562888465</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="92"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="94"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39" t="s">
         <v>86</v>
       </c>
@@ -7402,10 +7915,10 @@
         <v>4.6164750735250566</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30.75">
-      <c r="B10" s="92"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="94"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39" t="s">
         <v>87</v>
       </c>
@@ -7440,10 +7953,10 @@
         <v>5.0820761131091521</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="92"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="94"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="39" t="s">
         <v>88</v>
       </c>
@@ -7478,10 +7991,10 @@
         <v>5.3801664373667117</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75">
-      <c r="B12" s="92"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="94"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="39" t="s">
         <v>89</v>
       </c>
@@ -7516,10 +8029,10 @@
         <v>6.0250229663769241</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30.75">
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+    <row r="13" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="39" t="s">
         <v>90</v>
       </c>
@@ -7567,14 +8080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -7590,10 +8103,10 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="56.25" customHeight="1">
+    <row r="5" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
@@ -7606,10 +8119,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>77</v>
       </c>
@@ -7632,7 +8145,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21">
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.3">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -7651,14 +8164,14 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="96">
         <v>0.15</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.14399999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -7695,10 +8208,10 @@
         <v>4.1188470176342804</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30.75">
-      <c r="B8" s="85"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+    <row r="8" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="87"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
         <v>93</v>
       </c>
@@ -7733,10 +8246,10 @@
         <v>4.2857144190630994</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="85"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="87"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39" t="s">
         <v>86</v>
       </c>
@@ -7771,10 +8284,10 @@
         <v>4.5407951542869407</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30.75">
-      <c r="B10" s="85"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="87"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39" t="s">
         <v>87</v>
       </c>
@@ -7809,10 +8322,10 @@
         <v>4.9987633899434281</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="85"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="87"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="39" t="s">
         <v>88</v>
       </c>
@@ -7847,10 +8360,10 @@
         <v>5.2919669875738142</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75">
-      <c r="B12" s="85"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="87"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="39" t="s">
         <v>89</v>
       </c>
@@ -7885,10 +8398,10 @@
         <v>5.926252098075663</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30.75">
-      <c r="B13" s="85"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+    <row r="13" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="87"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="39" t="s">
         <v>94</v>
       </c>
@@ -7923,10 +8436,10 @@
         <v>6.3612283268121796</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="45.75">
-      <c r="B14" s="85"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+    <row r="14" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="87"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="39" t="s">
         <v>95</v>
       </c>
@@ -7958,7 +8471,7 @@
       <c r="M14" s="51"/>
       <c r="N14" s="51"/>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="40"/>
     </row>
   </sheetData>
@@ -7974,14 +8487,198 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:N12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" style="15" customWidth="1"/>
+    <col min="11" max="14" width="20.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="B6" s="81"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+    </row>
+    <row r="7" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="96">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="96">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51">
+        <f>6.183600644/3</f>
+        <v>2.0612002146666666</v>
+      </c>
+      <c r="H7" s="45">
+        <f>G7/D$7</f>
+        <v>41.22400429333333</v>
+      </c>
+      <c r="I7" s="46">
+        <v>1</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="44">
+        <f>F7/C$7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
+        <f>G7/C$7</f>
+        <v>41.22400429333333</v>
+      </c>
+      <c r="M7" s="51">
+        <f>K7/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="51">
+        <f>L7/Info!H$3</f>
+        <v>4.1188470176342795</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="87"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="59">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <f>9.55007442857143/3</f>
+        <v>3.1833581428571431</v>
+      </c>
+      <c r="H8" s="45">
+        <f t="shared" ref="H8" si="0">G8/D$7</f>
+        <v>63.667162857142863</v>
+      </c>
+      <c r="I8" s="46">
+        <v>2</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="44">
+        <f t="shared" ref="K8" si="1">F8/C$7</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
+        <f t="shared" ref="L8" si="2">G8/C$7</f>
+        <v>63.667162857142863</v>
+      </c>
+      <c r="M8" s="51">
+        <f>K8/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="51">
+        <f>L8/Info!H$3</f>
+        <v>6.3612283268121796</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="33.42578125" style="15" customWidth="1"/>
@@ -7997,16 +8694,16 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
         <v>97</v>
       </c>
       <c r="H2" s="40"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="72.75" customHeight="1">
+    <row r="5" spans="2:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>98</v>
       </c>
@@ -8019,10 +8716,10 @@
       <c r="E5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="36" t="s">
         <v>77</v>
       </c>
@@ -8045,7 +8742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="21">
+    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.3">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -8064,14 +8761,14 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="96">
         <v>0.15</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.14399999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
@@ -8111,10 +8808,10 @@
         <v>2.2268852820254548</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30.75">
-      <c r="B8" s="85"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+    <row r="8" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="87"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
         <v>93</v>
       </c>
@@ -8150,10 +8847,10 @@
         <v>2.3171033840090289</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="85"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="87"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39" t="s">
         <v>86</v>
       </c>
@@ -8189,10 +8886,10 @@
         <v>2.4550146811672482</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30.75">
-      <c r="B10" s="85"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="87"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39" t="s">
         <v>87</v>
       </c>
@@ -8228,10 +8925,10 @@
         <v>2.7026186148050551</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="85"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="87"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="39" t="s">
         <v>88</v>
       </c>
@@ -8267,10 +8964,10 @@
         <v>2.8611413211363619</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75">
-      <c r="B12" s="85"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="87"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="39" t="s">
         <v>89</v>
       </c>
@@ -8306,10 +9003,10 @@
         <v>3.2040722848592473</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30.75">
-      <c r="B13" s="85"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+    <row r="13" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="87"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="39" t="s">
         <v>101</v>
       </c>
@@ -8346,10 +9043,10 @@
         <v>4.6626441103397953</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="45.75">
-      <c r="B14" s="85"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+    <row r="14" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="87"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="39" t="s">
         <v>103</v>
       </c>
@@ -8392,483 +9089,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B4:N28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="53.42578125" style="15" customWidth="1"/>
-    <col min="11" max="12" width="22" style="15" customWidth="1"/>
-    <col min="13" max="14" width="17.7109375" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:14">
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:14" ht="56.25">
-      <c r="B5" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-    </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="95">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="95">
-        <v>0.1026</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="44">
-        <v>0</v>
-      </c>
-      <c r="G7" s="45">
-        <v>173.70699999999999</v>
-      </c>
-      <c r="H7" s="45">
-        <f>G7/D$7</f>
-        <v>1693.0506822612085</v>
-      </c>
-      <c r="I7" s="46">
-        <v>1</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="44">
-        <f>F7/C$7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="45">
-        <f>G7/C$7</f>
-        <v>1737.07</v>
-      </c>
-      <c r="M7" s="51">
-        <f>K7/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="51">
-        <f>L7/Info!H$3</f>
-        <v>173.55726867317028</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B8" s="92"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="44">
-        <v>0</v>
-      </c>
-      <c r="G8" s="45">
-        <v>192.03</v>
-      </c>
-      <c r="H8" s="45">
-        <f t="shared" ref="H8:H12" si="0">G8/D$7</f>
-        <v>1871.6374269005848</v>
-      </c>
-      <c r="I8" s="46">
-        <v>1</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="44">
-        <f t="shared" ref="K8:K10" si="1">F8/C$7</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="45">
-        <f t="shared" ref="L8:L10" si="2">G8/C$7</f>
-        <v>1920.3</v>
-      </c>
-      <c r="M8" s="51">
-        <f>K8/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="51">
-        <f>L8/Info!H$3</f>
-        <v>191.86447468040373</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="30.75" customHeight="1">
-      <c r="B9" s="92"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="44">
-        <v>0</v>
-      </c>
-      <c r="G9" s="45">
-        <v>210.60400000000001</v>
-      </c>
-      <c r="H9" s="45">
-        <f t="shared" si="0"/>
-        <v>2052.6705653021445</v>
-      </c>
-      <c r="I9" s="46">
-        <v>1</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="45">
-        <f t="shared" si="2"/>
-        <v>2106.04</v>
-      </c>
-      <c r="M9" s="51">
-        <f>K9/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="51">
-        <f>L9/Info!H$3</f>
-        <v>210.42246433157189</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B10" s="92"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="44">
-        <v>0</v>
-      </c>
-      <c r="G10" s="45">
-        <v>232.00399999999999</v>
-      </c>
-      <c r="H10" s="45">
-        <f t="shared" si="0"/>
-        <v>2261.2475633528265</v>
-      </c>
-      <c r="I10" s="46">
-        <v>2</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="45">
-        <f t="shared" si="2"/>
-        <v>2320.04</v>
-      </c>
-      <c r="M10" s="51">
-        <f>K10/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="51">
-        <f>L10/Info!H$3</f>
-        <v>231.80401803755865</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="92"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="44">
-        <v>0</v>
-      </c>
-      <c r="G11" s="45">
-        <f>G10*(D7+0.018)/D7</f>
-        <v>272.70645614035084</v>
-      </c>
-      <c r="H11" s="45">
-        <f t="shared" si="0"/>
-        <v>2657.9576621866554</v>
-      </c>
-      <c r="I11" s="46">
-        <v>3</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="44">
-        <f t="shared" ref="K11:K12" si="3">F11/C$7</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="45">
-        <f t="shared" ref="L11:L12" si="4">G11/C$7</f>
-        <v>2727.0645614035084</v>
-      </c>
-      <c r="M11" s="51">
-        <f>K11/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="51">
-        <f>L11/Info!H$3</f>
-        <v>272.47138962309521</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="45.75">
-      <c r="B12" s="93"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="44">
-        <v>0</v>
-      </c>
-      <c r="G12" s="45">
-        <f>1.15*G10*(D7+0.018)/D7</f>
-        <v>313.61242456140349</v>
-      </c>
-      <c r="H12" s="45">
-        <f t="shared" si="0"/>
-        <v>3056.651311514654</v>
-      </c>
-      <c r="I12" s="46">
-        <v>4</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="45">
-        <f t="shared" si="4"/>
-        <v>3136.1242456140349</v>
-      </c>
-      <c r="M12" s="51">
-        <f>K12/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="51">
-        <f>L12/Info!H$3</f>
-        <v>313.34209806655952</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="J13" s="40"/>
-    </row>
-    <row r="18" spans="4:9">
-      <c r="D18" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="H18" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9">
-      <c r="D19" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9">
-      <c r="D20" s="56">
-        <v>0</v>
-      </c>
-      <c r="E20" s="56">
-        <v>1.3205352050000001</v>
-      </c>
-      <c r="H20" s="56">
-        <v>0</v>
-      </c>
-      <c r="I20" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9">
-      <c r="D21" s="56">
-        <v>18.638670000000001</v>
-      </c>
-      <c r="E21" s="56">
-        <v>48.828032460000003</v>
-      </c>
-      <c r="H21" s="56">
-        <v>56</v>
-      </c>
-      <c r="I21" s="56">
-        <v>142.5324</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9">
-      <c r="D22" s="56">
-        <v>37.286619999999999</v>
-      </c>
-      <c r="E22" s="56">
-        <v>96.042909750000007</v>
-      </c>
-      <c r="H22" s="56">
-        <v>70</v>
-      </c>
-      <c r="I22" s="56">
-        <v>175.3176</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9">
-      <c r="D23" s="56">
-        <v>55.938049999999997</v>
-      </c>
-      <c r="E23" s="56">
-        <v>142.47481060000001</v>
-      </c>
-      <c r="H23" s="56">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="I23" s="56">
-        <v>183.03319999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9">
-      <c r="D24" s="56">
-        <v>74.584919999999997</v>
-      </c>
-      <c r="E24" s="56">
-        <v>182.07576420000001</v>
-      </c>
-      <c r="H24" s="56">
-        <v>82</v>
-      </c>
-      <c r="I24" s="56">
-        <v>192.6122</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9">
-      <c r="D25" s="56">
-        <v>82.046189999999996</v>
-      </c>
-      <c r="E25" s="56">
-        <v>192.0789259</v>
-      </c>
-      <c r="H25" s="56">
-        <v>90</v>
-      </c>
-      <c r="I25" s="56">
-        <v>201.322</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9">
-      <c r="H26" s="56">
-        <v>100</v>
-      </c>
-      <c r="I26" s="56">
-        <v>210.60400000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9">
-      <c r="H27" s="56">
-        <v>110</v>
-      </c>
-      <c r="I27" s="56">
-        <v>218.58199999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9">
-      <c r="H28" s="56">
-        <v>130</v>
-      </c>
-      <c r="I28" s="56">
-        <v>232.00399999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f65c3edb-e908-4fa9-b879-d5122fbc6460" xsi:nil="true"/>
@@ -8879,7 +9109,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100727DF2EBD128B7439A97AA0AFC5008D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="3526578aec713d4a9f9585ce213b7960">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3" xmlns:ns3="f65c3edb-e908-4fa9-b879-d5122fbc6460" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a95d49f416f1b914535e988a0529a7" ns2:_="" ns3:_="">
     <xsd:import namespace="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3"/>
@@ -9108,23 +9338,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C6A622-D92B-4BBB-8157-73A661038BDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFA4ABD-F06E-4696-B388-A2D2A8A7DCAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5BBEA7-67A3-432A-AE03-2A734A9CF25D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C6A622-D92B-4BBB-8157-73A661038BDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3"/>
+    <ds:schemaRef ds:uri="f65c3edb-e908-4fa9-b879-d5122fbc6460"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFA4ABD-F06E-4696-B388-A2D2A8A7DCAB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5BBEA7-67A3-432A-AE03-2A734A9CF25D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3"/>
+    <ds:schemaRef ds:uri="f65c3edb-e908-4fa9-b879-d5122fbc6460"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/MagnetStrengthLimits.xlsx
+++ b/data/MagnetStrengthLimits.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28706"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365.sharepoint.com/sites/AFSGcopy/Delade dokument/General/WP 03.0 Magnets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18710C86-2052-4690-8704-C3A9E8A4C670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="2955" windowHeight="11850" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="2955" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -31,9 +32,10 @@
     <sheet name="SextTrimsQ" sheetId="19" r:id="rId17"/>
     <sheet name="Sdend_CombQ" sheetId="23" r:id="rId18"/>
     <sheet name="Sd_CombQ" sheetId="24" r:id="rId19"/>
-    <sheet name="Ver. 0.0 1st Draft" sheetId="5" r:id="rId20"/>
+    <sheet name="Sd_Comb_Coupled" sheetId="28" r:id="rId20"/>
+    <sheet name="Ver. 0.0 1st Draft" sheetId="5" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="241">
   <si>
     <t>Magnet Strength Limits</t>
   </si>
@@ -186,6 +188,15 @@
     <t>Updates to dipole magnet limits</t>
   </si>
   <si>
+    <t>Updates to quadrupole components in sextupoles. Still Work In Progress, this is an updated guess based on more recent calculations</t>
+  </si>
+  <si>
+    <t>Added the magnet tye (X1) , an extra 5-cm long quadrupole to be installed rght downstream of the U1 and U2 blocks and right upsteam of the U4 and u5 blocks.</t>
+  </si>
+  <si>
+    <t>Added coupled combined funcion sextupoles/quadrupoles</t>
+  </si>
+  <si>
     <t>Nominal Integrated Field</t>
   </si>
   <si>
@@ -381,6 +392,15 @@
   </si>
   <si>
     <t>Space available in U2 and U3 blocks (QF magnets ), not in U1 (Qfm magnets). Valie estimated from scaling with length</t>
+  </si>
+  <si>
+    <t>Xq (new magnet)</t>
+  </si>
+  <si>
+    <t>based o the maxium we can get from a Qfm with the present design  quad, scaled by the length</t>
+  </si>
+  <si>
+    <t>based o the maxium we can get from a Qfm with thicker pole roots, scaled by the length</t>
   </si>
   <si>
     <t>Based on QF, bore diameter increased from 25 mm to 34 mm</t>
@@ -505,67 +525,74 @@
     <t>same as exisrting magnet , 10 mm longer</t>
   </si>
   <si>
+    <t xml:space="preserve">narrower poles+remove cutouts </t>
+  </si>
+  <si>
+    <t>From calculations by LJL</t>
+  </si>
+  <si>
     <t>narrower poles+remove cutouts + 10 mm longer @ 130 A</t>
   </si>
   <si>
+    <t>same as abovce scaled by length</t>
+  </si>
+  <si>
+    <t>narrower poles + remove cutouts</t>
+  </si>
+  <si>
+    <t>10 mm longer</t>
+  </si>
+  <si>
+    <t>make poles narrower and even lomger magnet</t>
+  </si>
+  <si>
+    <t>whatwas this ?</t>
+  </si>
+  <si>
+    <t>Sd</t>
+  </si>
+  <si>
+    <t>as built, nominal current ( 55.9 A)</t>
+  </si>
+  <si>
+    <t>j@130A=12 A/mm2, cooling OK: ΔT=6.5°C @ΔP=2 bar</t>
+  </si>
+  <si>
+    <t>as built, measured @ higher current ( 66.4 A)</t>
+  </si>
+  <si>
+    <t>as built, highest current with existing ps ( 100 A)</t>
+  </si>
+  <si>
+    <t>as exisitng magnet but 35 mm (25 mm upstream, 10mm downstream for the SD upstream of dipole) @ 130 A</t>
+  </si>
+  <si>
+    <t>increase pole width, change coils within the outer envolope + 35 mm longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on Henriques 2D calculations plus scaling with length
+</t>
+  </si>
+  <si>
+    <t>increase pole width, change coils within the outer envolope + 80 mm longer (requirs new block)</t>
+  </si>
+  <si>
+    <t>SFI/SFO</t>
+  </si>
+  <si>
+    <t>as built, nominal current (77.3 A)</t>
+  </si>
+  <si>
+    <t>as built, measured @ higher current (86.4 A)</t>
+  </si>
+  <si>
+    <t>as the existing magnet, longer by 10 mm (upstream for the U1 block) @ 130 A</t>
+  </si>
+  <si>
+    <t>Narrower pole + longer maget by 10 mm @ 130 A</t>
+  </si>
+  <si>
     <t>To be calculated, present number is  a wild guess (15%)</t>
-  </si>
-  <si>
-    <t>narrower poles + remove cutouts</t>
-  </si>
-  <si>
-    <t>10 mm longer</t>
-  </si>
-  <si>
-    <t>make poles narrower and even lomger magnet</t>
-  </si>
-  <si>
-    <t>whatwas this ?</t>
-  </si>
-  <si>
-    <t>Sd</t>
-  </si>
-  <si>
-    <t>as built, nominal current ( 55.9 A)</t>
-  </si>
-  <si>
-    <t>j@130A=12 A/mm2, cooling OK: ΔT=6.5°C @ΔP=2 bar</t>
-  </si>
-  <si>
-    <t>as built, measured @ higher current ( 66.4 A)</t>
-  </si>
-  <si>
-    <t>as built, highest current with existing ps ( 100 A)</t>
-  </si>
-  <si>
-    <t>as exisitng magnet but 35 mm (25 mm upstream, 10mm downstream for the SD upstream of dipole) @ 130 A</t>
-  </si>
-  <si>
-    <t>increase pole width, change coils within the outer envolope + 35 mm longer</t>
-  </si>
-  <si>
-    <t>To be calculated, present numbers are a wild guess (15% increase) + scaling with length</t>
-  </si>
-  <si>
-    <t>increase pole width, change coils within the outer envolope + 80 mm longer (requirs new block)</t>
-  </si>
-  <si>
-    <t>upstream SD, longer by 25 mm upstream and 10 downtream</t>
-  </si>
-  <si>
-    <t>SFI/SFO</t>
-  </si>
-  <si>
-    <t>as built, nominal current (77.3 A)</t>
-  </si>
-  <si>
-    <t>as built, measured @ higher current (86.4 A)</t>
-  </si>
-  <si>
-    <t>as the existing magnet, longer by 10 mm (upstream for the U1 block) @ 130 A</t>
-  </si>
-  <si>
-    <t>Narrower pole + longer maget by 10 mm @ 130 A</t>
   </si>
   <si>
     <t>Measured values (average all Magnets Sfi and SFo)</t>
@@ -705,137 +732,142 @@
     <t>as built, measured @ max current (5 A)</t>
   </si>
   <si>
-    <t>new coil design and power supplies</t>
-  </si>
-  <si>
-    <t>Quadrupole component in sextupole magnet Sdend</t>
-  </si>
-  <si>
-    <t>Sdend_combQ</t>
-  </si>
-  <si>
-    <t>merely a copy from the trim coil tab</t>
-  </si>
-  <si>
-    <t>Sd_combQ</t>
-  </si>
-  <si>
-    <t>Max integrated gradient</t>
-  </si>
-  <si>
-    <t>Max Gradient</t>
-  </si>
-  <si>
-    <t>as built, @ max current from existing ps (100 A)</t>
-  </si>
-  <si>
-    <t>Obs: to be checked - for now just simple scaling</t>
-  </si>
-  <si>
-    <t>T/m**2</t>
-  </si>
-  <si>
-    <t>Sfm/Sfo</t>
-  </si>
-  <si>
-    <t>as built, nominal current (70.1 A)</t>
-  </si>
-  <si>
-    <t>as built, measured @ higher current ( 66.6 A)</t>
-  </si>
-  <si>
-    <t>Sfi</t>
-  </si>
-  <si>
-    <t>OXX, OXY</t>
-  </si>
-  <si>
-    <t>as built, measured @ nominal current (106.7 A)</t>
-  </si>
-  <si>
-    <t>T.m**2</t>
-  </si>
-  <si>
-    <t>T/m**3</t>
-  </si>
-  <si>
-    <t>as built at highest current from existing ps</t>
-  </si>
-  <si>
-    <t>Obs: to be checked - for now just duplicate at lower current</t>
-  </si>
-  <si>
-    <t>as built, nominal current (203.901 A)</t>
-  </si>
-  <si>
-    <t>Gradient adjustment range with existing pole face strips and ps</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Obs: to be checked</t>
-  </si>
-  <si>
-    <t>Gradient adjustment range with modified pole face strip + new ps ??</t>
-  </si>
-  <si>
-    <t>as built, existing poleface strips</t>
-  </si>
-  <si>
-    <t>Minimum gradient</t>
-  </si>
-  <si>
-    <t>Maximum gradient</t>
-  </si>
-  <si>
-    <t>as built, modified poleface strips</t>
-  </si>
-  <si>
-    <t>modified pole tip  (2D modelling) - no poleface strips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obs: to be checked - for now just assume same as dip </t>
-  </si>
-  <si>
-    <t>Minimum gradient (modified pfs)</t>
-  </si>
-  <si>
-    <t>Maximum gradient (modified pfs)</t>
-  </si>
-  <si>
-    <t>Obs: to be checked - for now just assume 10%</t>
-  </si>
-  <si>
-    <t>modified pole tip  (2D modelling)</t>
-  </si>
-  <si>
-    <t>Updates to quadrupole components in sextupoles. Still Work In Progress, this is an updated guess based on more recent calculations</t>
-  </si>
-  <si>
     <t>From email from Alexey on 2024/05/21.
 updated guestimate based on calculations February 2025</t>
   </si>
   <si>
+    <t>new coil design and power supplies</t>
+  </si>
+  <si>
+    <t>Quadrupole component in sextupole magnet Sdend</t>
+  </si>
+  <si>
+    <t>Sdend_combQ</t>
+  </si>
+  <si>
+    <t>merely a copy from the trim coil tab</t>
+  </si>
+  <si>
+    <t>Sd_combQ</t>
+  </si>
+  <si>
+    <t>as built.redistribution of total NI</t>
+  </si>
+  <si>
     <t>guesstimate</t>
   </si>
   <si>
-    <t>Xq (new magnet)</t>
-  </si>
-  <si>
-    <t>Added the magnet tye (X1) , an extra 5-cm long quadrupole to be installed rght downstream of the U1 and U2 blocks and right upsteam of the U4 and u5 blocks.</t>
-  </si>
-  <si>
-    <t>based o the maxium we can get from a Qfm with the present design  quad, scaled by the length</t>
-  </si>
-  <si>
-    <t>based o the maxium we can get from a Qfm with thicker pole roots, scaled by the length</t>
+    <t>Integrated Sextupol   Gradient
+[T/m]</t>
+  </si>
+  <si>
+    <t>Integrated Quadrupole Gradient
+[T]</t>
+  </si>
+  <si>
+    <t>From Henrique´s c2D calcualations</t>
+  </si>
+  <si>
+    <t>new poles</t>
+  </si>
+  <si>
+    <t>From Henrique´s c2D calculations</t>
+  </si>
+  <si>
+    <t>Max integrated gradient</t>
+  </si>
+  <si>
+    <t>Max Gradient</t>
+  </si>
+  <si>
+    <t>as built, @ max current from existing ps (100 A)</t>
+  </si>
+  <si>
+    <t>Obs: to be checked - for now just simple scaling</t>
+  </si>
+  <si>
+    <t>T/m**2</t>
+  </si>
+  <si>
+    <t>Sfm/Sfo</t>
+  </si>
+  <si>
+    <t>as built, nominal current (70.1 A)</t>
+  </si>
+  <si>
+    <t>as built, measured @ higher current ( 66.6 A)</t>
+  </si>
+  <si>
+    <t>Sfi</t>
+  </si>
+  <si>
+    <t>OXX, OXY</t>
+  </si>
+  <si>
+    <t>as built, measured @ nominal current (106.7 A)</t>
+  </si>
+  <si>
+    <t>T.m**2</t>
+  </si>
+  <si>
+    <t>T/m**3</t>
+  </si>
+  <si>
+    <t>as built at highest current from existing ps</t>
+  </si>
+  <si>
+    <t>Obs: to be checked - for now just duplicate at lower current</t>
+  </si>
+  <si>
+    <t>as built, nominal current (203.901 A)</t>
+  </si>
+  <si>
+    <t>Gradient adjustment range with existing pole face strips and ps</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Obs: to be checked</t>
+  </si>
+  <si>
+    <t>Gradient adjustment range with modified pole face strip + new ps ??</t>
+  </si>
+  <si>
+    <t>as built, existing poleface strips</t>
+  </si>
+  <si>
+    <t>Minimum gradient</t>
+  </si>
+  <si>
+    <t>Maximum gradient</t>
+  </si>
+  <si>
+    <t>as built, modified poleface strips</t>
+  </si>
+  <si>
+    <t>modified pole tip  (2D modelling) - no poleface strips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obs: to be checked - for now just assume same as dip </t>
+  </si>
+  <si>
+    <t>Minimum gradient (modified pfs)</t>
+  </si>
+  <si>
+    <t>Maximum gradient (modified pfs)</t>
+  </si>
+  <si>
+    <t>Obs: to be checked - for now just assume 10%</t>
+  </si>
+  <si>
+    <t>modified pole tip  (2D modelling)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -844,7 +876,7 @@
     <numFmt numFmtId="168" formatCode="0.000000000"/>
     <numFmt numFmtId="169" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,12 +1309,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,6 +1369,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,9 +1414,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1661,14 +1693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1678,12 +1710,12 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="26.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="18">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1701,7 +1733,7 @@
       <c r="L3" s="67"/>
       <c r="M3" s="67"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15.75">
       <c r="B4" s="10"/>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
@@ -1711,7 +1743,7 @@
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" s="3"/>
       <c r="G5" s="66" t="s">
         <v>4</v>
@@ -1723,13 +1755,13 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
     </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="82" t="s">
+    <row r="6" spans="2:13" ht="21">
+      <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
       <c r="G6" s="66" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +1772,7 @@
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="15.75">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="45">
       <c r="B8" s="5">
         <v>45380</v>
       </c>
@@ -1768,7 +1800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" s="5">
         <v>45382</v>
       </c>
@@ -1782,7 +1814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="30">
       <c r="B10" s="5">
         <v>45389</v>
       </c>
@@ -1796,7 +1828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="45">
       <c r="B11" s="5">
         <v>45440</v>
       </c>
@@ -1810,7 +1842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="60">
       <c r="B12" s="5">
         <v>45441</v>
       </c>
@@ -1824,7 +1856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="30">
       <c r="B13" s="52">
         <v>45442</v>
       </c>
@@ -1838,7 +1870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="60">
       <c r="B14" s="5">
         <v>45444</v>
       </c>
@@ -1852,7 +1884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="30">
       <c r="B15" s="5">
         <v>45445</v>
       </c>
@@ -1866,7 +1898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" s="5">
         <v>45451</v>
       </c>
@@ -1880,7 +1912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="30">
       <c r="B17" s="5">
         <v>45454</v>
       </c>
@@ -1894,7 +1926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="5">
         <v>45496</v>
       </c>
@@ -1908,7 +1940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="75">
       <c r="B19" s="5">
         <v>45599</v>
       </c>
@@ -1922,7 +1954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="75">
       <c r="B20" s="5">
         <v>45601</v>
       </c>
@@ -1936,7 +1968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="30">
       <c r="B21" s="5">
         <v>45603</v>
       </c>
@@ -1950,7 +1982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="5">
         <v>45606</v>
       </c>
@@ -1964,7 +1996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="30">
       <c r="B23" s="5">
         <v>45613</v>
       </c>
@@ -1978,7 +2010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="5">
         <v>45621</v>
       </c>
@@ -1992,7 +2024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="5">
         <v>45622</v>
       </c>
@@ -2006,7 +2038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="30">
       <c r="B26" s="5">
         <v>45624</v>
       </c>
@@ -2020,7 +2052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="30">
       <c r="B27" s="5">
         <v>45628</v>
       </c>
@@ -2034,7 +2066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="60">
       <c r="B28" s="5">
         <v>45633</v>
       </c>
@@ -2048,7 +2080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="45">
       <c r="B29" s="5">
         <v>45683</v>
       </c>
@@ -2062,7 +2094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="5">
         <v>45686</v>
       </c>
@@ -2076,7 +2108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="B31" s="5">
         <v>45699</v>
       </c>
@@ -2090,7 +2122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="45">
       <c r="B32" s="5">
         <v>45708</v>
       </c>
@@ -2101,10 +2133,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="60">
       <c r="B33" s="5">
         <v>45711</v>
       </c>
@@ -2115,148 +2147,156 @@
         <v>11</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30">
+      <c r="B34" s="5">
+        <v>45724</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5">
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5">
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5">
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5">
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5">
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5">
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5">
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5">
       <c r="B54" s="5"/>
       <c r="C54" s="9"/>
       <c r="D54" s="7"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5">
       <c r="B55" s="5"/>
       <c r="C55" s="9"/>
       <c r="D55" s="7"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5">
       <c r="B56" s="5"/>
       <c r="C56" s="9"/>
       <c r="D56" s="7"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="B57" s="5"/>
       <c r="C57" s="9"/>
       <c r="D57" s="7"/>
@@ -2272,14 +2312,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B4:N28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -2296,58 +2336,58 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="56.25">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="92"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -2357,18 +2397,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="97">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B7" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.1</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="95">
         <v>0.1026</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -2401,12 +2441,12 @@
         <v>173.55726867317028</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="94"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B8" s="92"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="39" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -2439,12 +2479,12 @@
         <v>191.86447468040373</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="94"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
+    <row r="9" spans="2:14" ht="30.75" customHeight="1">
+      <c r="B9" s="92"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="39" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -2460,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
@@ -2479,12 +2519,12 @@
         <v>210.42246433157189</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="94"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B10" s="92"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="39" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -2500,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
@@ -2519,12 +2559,12 @@
         <v>231.80401803755865</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="94"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
+    <row r="11" spans="2:14" ht="30.75">
+      <c r="B11" s="92"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="50" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
@@ -2541,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K11" s="44">
         <f t="shared" ref="K11:K12" si="3">F11/C$7</f>
@@ -2560,12 +2600,12 @@
         <v>272.47138962309521</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="95"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
+    <row r="12" spans="2:14" ht="45.75">
+      <c r="B12" s="93"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="50" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
@@ -2582,7 +2622,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K12" s="44">
         <f t="shared" si="3"/>
@@ -2601,33 +2641,33 @@
         <v>313.34209806655952</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14">
       <c r="J13" s="40"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9">
       <c r="D18" s="56" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E18" s="56"/>
       <c r="H18" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9">
       <c r="D19" s="56" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9">
       <c r="D20" s="56">
         <v>0</v>
       </c>
@@ -2641,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="56">
         <v>18.638670000000001</v>
       </c>
@@ -2655,7 +2695,7 @@
         <v>142.5324</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:9">
       <c r="D22" s="56">
         <v>37.286619999999999</v>
       </c>
@@ -2669,7 +2709,7 @@
         <v>175.3176</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:9">
       <c r="D23" s="56">
         <v>55.938049999999997</v>
       </c>
@@ -2683,7 +2723,7 @@
         <v>183.03319999999999</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:9">
       <c r="D24" s="56">
         <v>74.584919999999997</v>
       </c>
@@ -2697,7 +2737,7 @@
         <v>192.6122</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:9">
       <c r="D25" s="56">
         <v>82.046189999999996</v>
       </c>
@@ -2711,7 +2751,7 @@
         <v>201.322</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9">
       <c r="H26" s="56">
         <v>100</v>
       </c>
@@ -2719,7 +2759,7 @@
         <v>210.60400000000001</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:9">
       <c r="H27" s="56">
         <v>110</v>
       </c>
@@ -2727,7 +2767,7 @@
         <v>218.58199999999999</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:9">
       <c r="H28" s="56">
         <v>130</v>
       </c>
@@ -2748,14 +2788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="B4:N18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -2772,58 +2812,58 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="92"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -2833,18 +2873,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B7" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.1</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.10299999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -2877,12 +2917,12 @@
         <v>171.3991305420987</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="100"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B8" s="98"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -2891,7 +2931,7 @@
         <v>190.17500000000001</v>
       </c>
       <c r="H8" s="49">
-        <f t="shared" ref="H8:H12" si="0">G8/D$7</f>
+        <f t="shared" ref="H8:H13" si="0">G8/D$7</f>
         <v>1846.3592233009711</v>
       </c>
       <c r="I8" s="46">
@@ -2915,12 +2955,12 @@
         <v>190.01107364654368</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="100"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:14" ht="30.75">
+      <c r="B9" s="98"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -2936,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
@@ -2955,12 +2995,12 @@
         <v>208.55207795130983</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="100"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B10" s="98"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -2976,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
@@ -2995,12 +3035,12 @@
         <v>224.34045700093614</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="100"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+    <row r="11" spans="2:14" ht="30.75">
+      <c r="B11" s="98"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="39" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
@@ -3017,14 +3057,14 @@
         <v>3</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K11" s="44">
-        <f t="shared" ref="K11" si="3">F11/C$7</f>
+        <f t="shared" ref="K11:K12" si="3">F11/C$7</f>
         <v>0</v>
       </c>
       <c r="L11" s="45">
-        <f t="shared" ref="L11:L12" si="4">G11/C$7</f>
+        <f t="shared" ref="L11:L13" si="4">G11/C$7</f>
         <v>2463.3341747572813</v>
       </c>
       <c r="M11" s="51">
@@ -3036,62 +3076,93 @@
         <v>246.12108389423091</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="100"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+    <row r="12" spans="2:14" ht="18.75">
+      <c r="B12" s="98"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="50" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
       </c>
       <c r="G12" s="45">
-        <f>G11*1.15</f>
-        <v>283.28343009708732</v>
+        <v>316</v>
       </c>
       <c r="H12" s="49">
         <f t="shared" si="0"/>
-        <v>2750.3245640493915</v>
+        <v>3067.961165048544</v>
       </c>
       <c r="I12" s="46">
         <v>4</v>
       </c>
-      <c r="J12" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45">
-        <f t="shared" si="4"/>
-        <v>2832.8343009708728</v>
-      </c>
+      <c r="J12" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="45"/>
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J15" s="71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J16" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="30.75">
+      <c r="B13" s="98"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0</v>
+      </c>
+      <c r="G13" s="45">
+        <f>G12*1.1</f>
+        <v>347.6</v>
+      </c>
+      <c r="H13" s="49">
+        <f t="shared" si="0"/>
+        <v>3374.7572815533986</v>
+      </c>
+      <c r="I13" s="46">
+        <v>5</v>
+      </c>
+      <c r="J13" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45">
+        <f t="shared" si="4"/>
+        <v>3476</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="J16" s="71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
       <c r="J17" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B7:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3099,14 +3170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B4:N18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -3123,58 +3194,58 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="92"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -3184,18 +3255,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:14" ht="18.75">
+      <c r="B7" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.1</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.10199999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -3211,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -3230,12 +3301,12 @@
         <v>117.68047470086607</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="18.75">
+      <c r="B8" s="99"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -3268,12 +3339,12 @@
         <v>138.76428527580683</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:14" ht="30.75">
+      <c r="B9" s="99"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -3289,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
@@ -3308,12 +3379,12 @@
         <v>192.00495348652811</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:14" ht="18.75">
+      <c r="B10" s="99"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -3329,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
@@ -3348,12 +3419,12 @@
         <v>213.03021457328333</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="45.75">
       <c r="B11" s="70"/>
       <c r="C11" s="69"/>
       <c r="D11" s="69"/>
       <c r="E11" s="39" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
@@ -3370,7 +3441,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K11" s="44">
         <f t="shared" ref="K11:K13" si="3">F11/C$7</f>
@@ -3389,29 +3460,29 @@
         <v>275.68616003601375</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="45.75">
       <c r="B12" s="70"/>
       <c r="C12" s="69"/>
       <c r="D12" s="69"/>
       <c r="E12" s="50" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
       </c>
       <c r="G12" s="45">
-        <f>G11*1.15</f>
-        <v>317.31260000000003</v>
+        <f>340.16*1.35</f>
+        <v>459.21600000000007</v>
       </c>
       <c r="H12" s="45">
         <f t="shared" si="0"/>
-        <v>3110.9078431372554</v>
+        <v>4502.1176470588243</v>
       </c>
       <c r="I12" s="46">
         <v>4</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K12" s="44">
         <f t="shared" si="3"/>
@@ -3419,7 +3490,7 @@
       </c>
       <c r="L12" s="45">
         <f t="shared" si="4"/>
-        <v>3173.1260000000002</v>
+        <v>4592.1600000000008</v>
       </c>
       <c r="M12" s="51">
         <f>K12/Info!H$3</f>
@@ -3427,32 +3498,32 @@
       </c>
       <c r="N12" s="51">
         <f>L12/Info!H$3</f>
-        <v>317.03908404141583</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
+        <v>458.82016666581416</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="45.75">
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="50" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F13" s="44">
         <v>0</v>
       </c>
       <c r="G13" s="45">
-        <f>G10*(D7+0.08)/D7*1.15</f>
-        <v>437.50676666666658</v>
+        <f>340.16*(D7+0.08)/D7</f>
+        <v>606.95215686274514</v>
       </c>
       <c r="H13" s="45">
         <f t="shared" si="0"/>
-        <v>4289.2820261437901</v>
+        <v>5950.5113417916191</v>
       </c>
       <c r="I13" s="46">
         <v>10</v>
       </c>
-      <c r="J13" s="41" t="s">
-        <v>144</v>
+      <c r="J13" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="3"/>
@@ -3460,7 +3531,7 @@
       </c>
       <c r="L13" s="45">
         <f t="shared" si="4"/>
-        <v>4375.0676666666659</v>
+        <v>6069.5215686274514</v>
       </c>
       <c r="M13" s="51">
         <f>K13/Info!H$3</f>
@@ -3468,13 +3539,13 @@
       </c>
       <c r="N13" s="51">
         <f>L13/Info!H$3</f>
-        <v>437.12964617831568</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>606.42897845445293</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="J14" s="40"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8">
       <c r="H18" s="40"/>
     </row>
   </sheetData>
@@ -3490,14 +3561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B4:N34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -3514,58 +3585,58 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="92"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -3575,18 +3646,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B7" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.1</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.10340000000000001</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -3619,12 +3690,12 @@
         <v>210.21864017474846</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="101"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B8" s="99"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -3657,12 +3728,12 @@
         <v>220.50976181828409</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:14" ht="30.75">
+      <c r="B9" s="99"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -3678,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
@@ -3697,12 +3768,12 @@
         <v>236.71178400969916</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B10" s="99"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -3718,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
@@ -3737,12 +3808,12 @@
         <v>258.08534461149679</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="101"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+    <row r="11" spans="2:14" ht="30.75">
+      <c r="B11" s="99"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="39" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
@@ -3759,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K11" s="44">
         <f t="shared" ref="K11:K12" si="3">F11/C$7</f>
@@ -3778,12 +3849,12 @@
         <v>283.04524254297615</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="101"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+    <row r="12" spans="2:14" ht="30.75">
+      <c r="B12" s="99"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="50" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
@@ -3800,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="K12" s="44">
         <f t="shared" si="3"/>
@@ -3819,31 +3890,31 @@
         <v>325.50202892442252</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12">
       <c r="D22" s="56" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E22" s="56"/>
       <c r="H22" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" ht="30">
       <c r="D23" s="58" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H23" s="57" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L23" s="56"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12">
       <c r="D24" s="56">
         <v>0</v>
       </c>
@@ -3858,7 +3929,7 @@
       </c>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:12">
       <c r="D25" s="56">
         <v>16.544709999999998</v>
       </c>
@@ -3873,7 +3944,7 @@
       </c>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12">
       <c r="D26" s="56">
         <v>19.628530000000001</v>
       </c>
@@ -3888,7 +3959,7 @@
       </c>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:12">
       <c r="D27" s="56">
         <v>33.098700000000001</v>
       </c>
@@ -3903,7 +3974,7 @@
       </c>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:12">
       <c r="D28" s="56">
         <v>39.270159999999997</v>
       </c>
@@ -3918,7 +3989,7 @@
       </c>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:12">
       <c r="D29" s="56">
         <v>49.655290000000001</v>
       </c>
@@ -3933,7 +4004,7 @@
       </c>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:12">
       <c r="D30" s="56">
         <v>58.90842</v>
       </c>
@@ -3948,7 +4019,7 @@
       </c>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:12">
       <c r="D31" s="56">
         <v>66.216239999999999</v>
       </c>
@@ -3963,7 +4034,7 @@
       </c>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:12">
       <c r="D32" s="56">
         <v>72.838589999999996</v>
       </c>
@@ -3971,7 +4042,7 @@
         <v>200.1782</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5">
       <c r="D33" s="56">
         <v>78.549310000000006</v>
       </c>
@@ -3979,7 +4050,7 @@
         <v>211.68530000000001</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5">
       <c r="D34" s="56">
         <v>86.402140000000003</v>
       </c>
@@ -4000,14 +4071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B4:N22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -4024,58 +4095,58 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="92"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -4085,18 +4156,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:14" ht="45.75">
+      <c r="B7" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.1</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.1008</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -4112,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -4131,12 +4202,12 @@
         <v>3483.6584354345814</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="30.75">
+      <c r="B8" s="99"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -4152,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K8" s="44">
         <f>F8/C$7</f>
@@ -4171,12 +4242,12 @@
         <v>5596.9522273743978</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:14" ht="45.75">
+      <c r="B9" s="99"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -4192,7 +4263,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K9" s="44">
         <f>F9/C$7</f>
@@ -4211,12 +4282,12 @@
         <v>6590.1696373624545</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:14" ht="60.75">
+      <c r="B10" s="99"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -4233,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K10" s="44">
         <f>F10/C$7</f>
@@ -4252,59 +4323,59 @@
         <v>8237.7120467030672</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14">
       <c r="G11" s="40"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14">
       <c r="B12" s="73" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M12" s="74">
         <f>28.3/29.85*60</f>
         <v>56.884422110552762</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="C13" s="40" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="M13" s="15">
         <f>15/1*41.4</f>
         <v>621</v>
       </c>
       <c r="N13" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="C14" s="40"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14">
       <c r="C15" s="40"/>
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14">
       <c r="E16" s="40"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8">
       <c r="H18" s="40"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8">
       <c r="H22" s="40"/>
     </row>
   </sheetData>
@@ -4320,14 +4391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B4:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -4344,58 +4415,58 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="92"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -4405,18 +4476,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="97">
+    <row r="7" spans="2:14" ht="45.75">
+      <c r="B7" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.1</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="95">
         <v>0.1008</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -4432,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -4451,12 +4522,12 @@
         <v>6590.1705280820133</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
+    <row r="8" spans="2:14" ht="45.75">
+      <c r="B8" s="93"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="39" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -4473,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K8" s="44">
         <f>F8/C$7</f>
@@ -4492,56 +4563,56 @@
         <v>8237.7131601025158</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14">
       <c r="B10" s="40" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="K10" s="40" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M10" s="75">
         <f>100/49.6*57.3</f>
         <v>115.52419354838709</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="C11" s="40" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M11" s="15">
         <f>254*22/8</f>
         <v>698.5</v>
       </c>
       <c r="N11" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14">
       <c r="E15" s="40"/>
       <c r="J15" s="15">
         <f>107*G8/G7</f>
         <v>133.75</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8">
       <c r="G17" s="76"/>
       <c r="H17" s="40"/>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:8">
       <c r="H21" s="40"/>
     </row>
   </sheetData>
@@ -4557,14 +4628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B4:N15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -4581,58 +4652,58 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="92"/>
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -4642,18 +4713,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B7" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.1</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.1</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -4669,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -4688,12 +4759,12 @@
         <v>2527.9329870534089</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="101"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B8" s="99"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -4709,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K8" s="44">
         <f t="shared" ref="K8" si="1">F8/C$7</f>
@@ -4728,12 +4799,12 @@
         <v>6590.1705280820115</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:14" ht="30.75">
+      <c r="B9" s="99"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -4750,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" ref="K9" si="4">F9/C$7</f>
@@ -4769,37 +4840,37 @@
         <v>8237.7131601025158</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14">
       <c r="B12" s="40" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="M12" s="15">
         <f>110/58.3*94.9</f>
         <v>179.05660377358492</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14">
       <c r="I14" s="40"/>
       <c r="J14" s="15">
         <f>58.3/94.9</f>
         <v>0.61433087460484714</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14">
       <c r="E15" s="40" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J15" s="15">
         <f>225*J14</f>
@@ -4819,14 +4890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B4:L10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -4842,52 +4913,52 @@
     <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:12" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="56.25">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -4895,18 +4966,18 @@
       <c r="K6" s="48"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="2:12" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:12" ht="30.75">
+      <c r="B7" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.1</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.1</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -4922,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="K7" s="60">
         <f>F7/Info!H$3</f>
@@ -4933,12 +5004,12 @@
         <v>9.9913802364424171E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:12" ht="18.75">
+      <c r="B8" s="99"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -4963,10 +5034,10 @@
         <v>2.8975002685683007E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:12" ht="18.75">
+      <c r="B9" s="99"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
@@ -4976,10 +5047,10 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:12" ht="18.75">
+      <c r="B10" s="99"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
@@ -5002,14 +5073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -5025,57 +5096,57 @@
     <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" s="40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:12" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="56.25">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -5083,18 +5154,18 @@
       <c r="K6" s="48"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:12" ht="18.75">
+      <c r="B7" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.1</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.1</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -5110,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K7" s="60">
         <f>F7/Info!H$3</f>
@@ -5121,12 +5192,12 @@
         <v>9.9913802364424171E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:12" ht="18.75">
+      <c r="B8" s="99"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -5142,7 +5213,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K8" s="60">
         <f>F8/Info!H$3</f>
@@ -5153,10 +5224,10 @@
         <v>2.8975002685683007E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:12" ht="18.75">
+      <c r="B9" s="99"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
@@ -5166,10 +5237,10 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:12" ht="18.75">
+      <c r="B10" s="99"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
@@ -5192,14 +5263,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -5208,83 +5279,87 @@
     <col min="5" max="5" width="41.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="15" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="53.42578125" style="15" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
+    <col min="8" max="10" width="16.7109375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="53.42578125" style="15" customWidth="1"/>
+    <col min="13" max="14" width="10.85546875" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14">
       <c r="B2" s="40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:12" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="56.25">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="96">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="28"/>
+    </row>
+    <row r="7" spans="2:14" ht="18.75">
+      <c r="B7" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.1</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.1</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -5295,27 +5370,29 @@
       <c r="H7" s="51">
         <v>0.1</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="46">
         <v>1</v>
       </c>
-      <c r="J7" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="K7" s="60">
+      <c r="L7" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="60">
         <f>F7/Info!H$3</f>
         <v>0</v>
       </c>
-      <c r="L7" s="61">
+      <c r="N7" s="61">
         <f>G7/Info!H$3</f>
         <v>9.9913802364424171E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="18.75">
+      <c r="B8" s="99"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -5326,46 +5403,52 @@
       <c r="H8" s="51">
         <v>0.15</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="46">
         <v>2</v>
       </c>
-      <c r="J8" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="K8" s="60">
+      <c r="L8" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" s="60">
         <f>F8/Info!H$3</f>
         <v>0</v>
       </c>
-      <c r="L8" s="61">
+      <c r="N8" s="61">
         <f>G8/Info!H$3</f>
         <v>1.4987070354663625E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:14" ht="18.75">
+      <c r="B9" s="99"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="2:14" ht="18.75">
+      <c r="B10" s="99"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5380,14 +5463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -5402,9 +5485,9 @@
     <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.75">
       <c r="C2" s="62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="64">
         <v>0.26198062393930399</v>
@@ -5413,62 +5496,62 @@
         <v>3</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75">
       <c r="C3" s="62" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="63">
         <v>393</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="2:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="86"/>
+        <v>46</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="84"/>
       <c r="F5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
-        <v>49</v>
+    <row r="7" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B7" s="85" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="51">
         <v>0</v>
@@ -5482,10 +5565,10 @@
       </c>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="2:9" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
+    <row r="8" spans="2:9" ht="30.75">
+      <c r="B8" s="85"/>
       <c r="C8" s="39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" s="51">
         <v>0</v>
@@ -5499,7 +5582,7 @@
       </c>
       <c r="G8" s="50"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="E13" s="78"/>
     </row>
   </sheetData>
@@ -5513,14 +5596,188 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
+    <col min="8" max="9" width="8.5703125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="53.42578125" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="2:11" ht="78" customHeight="1">
+      <c r="B5" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="101"/>
+      <c r="J5" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="21">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="2:11" ht="18.75">
+      <c r="B7" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="44">
+        <v>139.9</v>
+      </c>
+      <c r="G7" s="51">
+        <v>240.2</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="61">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="J7" s="46">
+        <v>1</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.75">
+      <c r="B8" s="99"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="44">
+        <v>221.3</v>
+      </c>
+      <c r="G8" s="51">
+        <v>340.16</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0</v>
+      </c>
+      <c r="I8" s="51">
+        <v>0.82</v>
+      </c>
+      <c r="J8" s="46">
+        <v>2</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18.75">
+      <c r="B9" s="99"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="2:11" ht="18.75">
+      <c r="B10" s="99"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B5:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -5530,22 +5787,22 @@
     <col min="9" max="9" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:13" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="56.25">
       <c r="B5" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F5" s="103"/>
       <c r="G5" s="104" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="H5" s="105"/>
       <c r="I5" s="15"/>
@@ -5554,28 +5811,28 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" s="106" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="106">
         <v>0.15</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E6" s="12">
         <v>6.1836006440000002</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G6" s="14">
         <f>E6/C$6</f>
         <v>41.224004293333337</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -5583,24 +5840,24 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="30">
       <c r="B7" s="106"/>
       <c r="C7" s="106"/>
       <c r="D7" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="12">
         <v>6.4341176859100697</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" ref="G7:G12" si="0">E7/C$6</f>
         <v>42.89411790606713</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -5608,24 +5865,24 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="30">
       <c r="B8" s="106"/>
       <c r="C8" s="106"/>
       <c r="D8" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E8" s="12">
         <v>6.8170688836236701</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>45.447125890824466</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -5633,24 +5890,24 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="30">
       <c r="B9" s="106"/>
       <c r="C9" s="106"/>
       <c r="D9" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E9" s="12">
         <v>7.5046138846427999</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>50.030759230952</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -5658,24 +5915,24 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="30">
       <c r="B10" s="106"/>
       <c r="C10" s="106"/>
       <c r="D10" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" s="12">
         <v>7.9447987100000006</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>52.96532473333334</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -5683,24 +5940,24 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="30">
       <c r="B11" s="106"/>
       <c r="C11" s="106"/>
       <c r="D11" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E11" s="12">
         <v>8.8970471914285714</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>59.313647942857145</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -5708,24 +5965,24 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="30">
       <c r="B12" s="106"/>
       <c r="C12" s="106"/>
       <c r="D12" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12" s="12">
         <v>9.5500744285714294</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>63.667162857142863</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -5733,7 +5990,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="20"/>
@@ -5747,28 +6004,28 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" s="107" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14" s="107">
         <v>0.25</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14" s="12">
         <v>9.1746298235346497</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G14" s="14">
         <f>E14/C$14</f>
         <v>36.698519294138599</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -5776,35 +6033,35 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="30">
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
       <c r="D15" s="11" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E15" s="12">
         <f>E14*0.25/0.15</f>
         <v>15.291049705891083</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G15" s="14">
         <f>E15/C$14</f>
         <v>61.164198823564334</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" s="108"/>
       <c r="C16" s="108"/>
       <c r="D16" s="18"/>
@@ -5818,7 +6075,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="18"/>
@@ -5832,15 +6089,15 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" s="107" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C18" s="107">
         <v>0.1</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E18" s="23">
         <f>170.755</f>
@@ -5854,7 +6111,7 @@
         <v>1707.55</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -5862,11 +6119,11 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" s="108"/>
       <c r="C19" s="108"/>
       <c r="D19" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E19" s="23">
         <f>2.44*82</f>
@@ -5880,7 +6137,7 @@
         <v>2000.7999999999997</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -5888,11 +6145,11 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="30">
       <c r="B20" s="108"/>
       <c r="C20" s="108"/>
       <c r="D20" s="11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E20" s="23">
         <f>E19*100/82</f>
@@ -5906,21 +6163,21 @@
         <v>2440</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
       <c r="D21" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E21" s="24">
         <f>E19*130/82</f>
@@ -5934,17 +6191,17 @@
         <v>3171.9999999999995</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="20"/>
@@ -5958,15 +6215,15 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" s="107" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C23" s="107">
         <v>0.1</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E23" s="23">
         <v>170.19300000000001</v>
@@ -5979,7 +6236,7 @@
         <v>1701.93</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -5987,11 +6244,11 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="108"/>
       <c r="C24" s="108"/>
       <c r="D24" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E24" s="23">
         <f>2.58609*82</f>
@@ -6005,7 +6262,7 @@
         <v>2120.5938000000001</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -6013,11 +6270,11 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="30">
       <c r="B25" s="108"/>
       <c r="C25" s="108"/>
       <c r="D25" s="11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E25" s="23">
         <f>E24*100/82</f>
@@ -6031,21 +6288,21 @@
         <v>2586.09</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" s="109"/>
       <c r="C26" s="109"/>
       <c r="D26" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E26" s="24">
         <f>E24*130/82</f>
@@ -6059,17 +6316,17 @@
         <v>3361.9169999999999</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
       <c r="D27" s="11"/>
@@ -6083,15 +6340,15 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" s="107" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C28" s="107">
         <v>0.1</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E28" s="23">
         <v>117.782</v>
@@ -6104,7 +6361,7 @@
         <v>1177.82</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -6112,11 +6369,11 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" s="108"/>
       <c r="C29" s="108"/>
       <c r="D29" s="11" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E29" s="23">
         <f>2.1*66.6666666666667</f>
@@ -6130,7 +6387,7 @@
         <v>1400.0000000000007</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -6138,11 +6395,11 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="30">
       <c r="B30" s="108"/>
       <c r="C30" s="108"/>
       <c r="D30" s="11" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E30" s="23">
         <f>E29*100/66.6</f>
@@ -6156,21 +6413,21 @@
         <v>2102.1021021021033</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="B31" s="109"/>
       <c r="C31" s="109"/>
       <c r="D31" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E31" s="24">
         <f>E29*130/82</f>
@@ -6184,17 +6441,17 @@
         <v>2219.5121951219526</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
       <c r="D32" s="18"/>
@@ -6208,15 +6465,15 @@
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13">
       <c r="B33" s="107" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C33" s="107">
         <v>0.1</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E33" s="23">
         <v>210.4</v>
@@ -6229,7 +6486,7 @@
         <v>2104</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -6237,11 +6494,11 @@
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13">
       <c r="B34" s="108"/>
       <c r="C34" s="108"/>
       <c r="D34" s="11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E34" s="23">
         <f>2.72*86.4</f>
@@ -6255,7 +6512,7 @@
         <v>2350.0800000000004</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -6263,11 +6520,11 @@
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="30">
       <c r="B35" s="108"/>
       <c r="C35" s="108"/>
       <c r="D35" s="11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E35" s="23">
         <f>100/86.4*E34</f>
@@ -6281,21 +6538,21 @@
         <v>2720.0000000000005</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13">
       <c r="B36" s="109"/>
       <c r="C36" s="109"/>
       <c r="D36" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E36" s="24">
         <f>E34*130/82</f>
@@ -6309,17 +6566,17 @@
         <v>3725.7365853658539</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13">
       <c r="B37" s="32"/>
       <c r="C37" s="27"/>
       <c r="D37" s="11"/>
@@ -6333,28 +6590,28 @@
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13">
       <c r="B38" s="107" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C38" s="107">
         <v>0.1</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E38" s="23">
         <v>6589.73</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G38" s="23">
         <f>E38/C$38</f>
         <v>65897.299999999988</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
@@ -6362,34 +6619,34 @@
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13">
       <c r="B39" s="109"/>
       <c r="C39" s="109"/>
       <c r="D39" s="11" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E39" s="23">
         <v>6589.73</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G39" s="23">
         <f>E39/C$38</f>
         <v>65897.299999999988</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13">
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="11"/>
@@ -6403,28 +6660,28 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13">
       <c r="B41" s="106" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C41" s="106">
         <v>0.1</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E41" s="23">
         <v>2850.71</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G41" s="23">
         <f>E41/C$38</f>
         <v>28507.1</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -6432,34 +6689,34 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13">
       <c r="B42" s="106"/>
       <c r="C42" s="106"/>
       <c r="D42" s="11" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E42" s="23">
         <v>2850.71</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G42" s="23">
         <f>E42/C$38</f>
         <v>28507.1</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13">
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="11"/>
@@ -6473,13 +6730,13 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13">
       <c r="B44" s="110" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="19"/>
@@ -6487,7 +6744,7 @@
         <v>8.7266221419519994</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
@@ -6495,11 +6752,11 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="30">
       <c r="B45" s="111"/>
       <c r="C45" s="28"/>
       <c r="D45" s="11" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="19"/>
@@ -6507,21 +6764,21 @@
         <v>4</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="30">
       <c r="B46" s="111"/>
       <c r="C46" s="28"/>
       <c r="D46" s="11" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="19"/>
@@ -6529,21 +6786,21 @@
         <v>10</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13">
       <c r="B47" s="111"/>
       <c r="C47" s="28"/>
       <c r="D47" s="11" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="19"/>
@@ -6555,11 +6812,11 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13">
       <c r="B48" s="111"/>
       <c r="C48" s="28"/>
       <c r="D48" s="30" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="19"/>
@@ -6568,7 +6825,7 @@
         <v>8.3775572562739189</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -6576,11 +6833,11 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13">
       <c r="B49" s="111"/>
       <c r="C49" s="28"/>
       <c r="D49" s="30" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="19"/>
@@ -6589,7 +6846,7 @@
         <v>9.0756870276300798</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
@@ -6597,11 +6854,11 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13">
       <c r="B50" s="111"/>
       <c r="C50" s="28"/>
       <c r="D50" s="11" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="19"/>
@@ -6613,11 +6870,11 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13">
       <c r="B51" s="111"/>
       <c r="C51" s="28"/>
       <c r="D51" s="30" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="19"/>
@@ -6626,7 +6883,7 @@
         <v>7.8539599277568</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
@@ -6634,11 +6891,11 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13">
       <c r="B52" s="111"/>
       <c r="C52" s="28"/>
       <c r="D52" s="30" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="19"/>
@@ -6647,7 +6904,7 @@
         <v>9.5992843561471997</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
@@ -6655,11 +6912,11 @@
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="30">
       <c r="B53" s="111"/>
       <c r="C53" s="28"/>
       <c r="D53" s="11" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="19"/>
@@ -6667,21 +6924,21 @@
         <v>10.95</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13">
       <c r="B54" s="111"/>
       <c r="C54" s="28"/>
       <c r="D54" s="30" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="19"/>
@@ -6690,7 +6947,7 @@
         <v>9.8550000000000004</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
@@ -6698,11 +6955,11 @@
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13">
       <c r="B55" s="112"/>
       <c r="C55" s="28"/>
       <c r="D55" s="30" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="19"/>
@@ -6711,7 +6968,7 @@
         <v>12.045</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
@@ -6719,13 +6976,13 @@
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13">
       <c r="B56" s="113" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C56" s="28"/>
       <c r="D56" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="19"/>
@@ -6733,7 +6990,7 @@
         <v>8.6680616642047994</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -6741,11 +6998,11 @@
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" ht="30">
       <c r="B57" s="113"/>
       <c r="C57" s="28"/>
       <c r="D57" s="11" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="19"/>
@@ -6753,7 +7010,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -6761,11 +7018,11 @@
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="30">
       <c r="B58" s="113"/>
       <c r="C58" s="28"/>
       <c r="D58" s="11" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="19"/>
@@ -6773,21 +7030,21 @@
         <v>10</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13">
       <c r="B59" s="113"/>
       <c r="C59" s="28"/>
       <c r="D59" s="11" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="19"/>
@@ -6799,11 +7056,11 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13">
       <c r="B60" s="113"/>
       <c r="C60" s="28"/>
       <c r="D60" s="30" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="19"/>
@@ -6812,7 +7069,7 @@
         <v>8.3213391976366076</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
@@ -6820,11 +7077,11 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13">
       <c r="B61" s="113"/>
       <c r="C61" s="28"/>
       <c r="D61" s="30" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="19"/>
@@ -6833,7 +7090,7 @@
         <v>9.0147841307729912</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
@@ -6841,11 +7098,11 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13">
       <c r="B62" s="113"/>
       <c r="C62" s="28"/>
       <c r="D62" s="11" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="19"/>
@@ -6857,11 +7114,11 @@
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13">
       <c r="B63" s="113"/>
       <c r="C63" s="28"/>
       <c r="D63" s="30" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="19"/>
@@ -6870,7 +7127,7 @@
         <v>7.8012554977843198</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
@@ -6878,11 +7135,11 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13">
       <c r="B64" s="113"/>
       <c r="C64" s="28"/>
       <c r="D64" s="30" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="19"/>
@@ -6891,7 +7148,7 @@
         <v>9.5348678306252808</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
@@ -6899,11 +7156,11 @@
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13">
       <c r="B65" s="113"/>
       <c r="C65" s="28"/>
       <c r="D65" s="11" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="19"/>
@@ -6912,7 +7169,7 @@
         <v>10.95</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -6920,11 +7177,11 @@
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13">
       <c r="B66" s="113"/>
       <c r="C66" s="28"/>
       <c r="D66" s="30" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="19"/>
@@ -6933,7 +7190,7 @@
         <v>9.8550000000000004</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -6941,11 +7198,11 @@
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13">
       <c r="B67" s="113"/>
       <c r="C67" s="28"/>
       <c r="D67" s="30" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="19"/>
@@ -6954,7 +7211,7 @@
         <v>12.045</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
@@ -6990,14 +7247,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -7011,93 +7268,93 @@
     <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15.75">
       <c r="C2" s="62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="63">
         <v>4.2100972347020704</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G2" s="75"/>
       <c r="I2" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75">
       <c r="C3" s="62" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="63">
         <v>8.7266221419519994</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G3" s="75"/>
       <c r="I3" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="86"/>
+        <v>46</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="87"/>
+      <c r="F5" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="84"/>
       <c r="H5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
-        <v>49</v>
+    <row r="7" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B7" s="85" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="59">
         <f>(1-0.04)*D3</f>
@@ -7119,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J7" s="59">
         <f>D7/Info!H$3</f>
@@ -7130,10 +7387,10 @@
         <v>0.90678639999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
+    <row r="8" spans="2:11" ht="30.75">
+      <c r="B8" s="85"/>
       <c r="C8" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D8" s="59">
         <f>(1-0.1)*D3</f>
@@ -7155,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J8" s="59">
         <f>D8/Info!H$3</f>
@@ -7166,10 +7423,10 @@
         <v>0.95910099999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="87"/>
+    <row r="9" spans="2:11" ht="90.75" customHeight="1">
+      <c r="B9" s="85"/>
       <c r="C9" s="39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" s="59">
         <f>-0.04*D3</f>
@@ -7190,8 +7447,8 @@
       <c r="H9" s="46">
         <v>10</v>
       </c>
-      <c r="I9" s="90" t="s">
-        <v>65</v>
+      <c r="I9" s="88" t="s">
+        <v>68</v>
       </c>
       <c r="J9" s="59">
         <f>D9/Info!H$3</f>
@@ -7202,10 +7459,10 @@
         <v>1.1363236827799998</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
+    <row r="10" spans="2:11" ht="30.75">
+      <c r="B10" s="85"/>
       <c r="C10" s="39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" s="59">
         <f>-0.1*D3</f>
@@ -7226,7 +7483,7 @@
       <c r="H10" s="46">
         <v>11</v>
       </c>
-      <c r="I10" s="91"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="59">
         <f>D10/Info!H$3</f>
         <v>-8.7191000000000005E-2</v>
@@ -7236,19 +7493,19 @@
         <v>1.1886382827799999</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9">
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9">
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9">
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9">
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
     </row>
@@ -7265,14 +7522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -7288,9 +7545,9 @@
     <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15.75">
       <c r="C2" s="62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="64">
         <v>0.52396124788699117</v>
@@ -7300,61 +7557,61 @@
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75">
       <c r="C3" s="62" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="65">
         <v>662.181756917077</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="88"/>
+        <v>46</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="86"/>
       <c r="F5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
-        <v>69</v>
+    <row r="7" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B7" s="85" t="s">
+        <v>72</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="59">
         <v>0</v>
@@ -7368,10 +7625,10 @@
       </c>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="2:7" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
+    <row r="8" spans="2:7" ht="30.75">
+      <c r="B8" s="85"/>
       <c r="C8" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" s="59">
         <v>0</v>
@@ -7385,10 +7642,10 @@
       </c>
       <c r="G8" s="50"/>
     </row>
-    <row r="9" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="87"/>
+    <row r="9" spans="2:7" ht="18.75">
+      <c r="B9" s="85"/>
       <c r="C9" s="39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9" s="59">
         <v>0</v>
@@ -7412,14 +7669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -7433,91 +7690,91 @@
     <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15.75">
       <c r="C2" s="62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="63">
         <v>8.5367398822081793</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="75"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15.75">
       <c r="C3" s="62" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="63">
         <v>8.6665854759732497</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="75"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="88"/>
+        <v>46</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="90"/>
+      <c r="F5" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="86"/>
       <c r="H5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
-        <v>69</v>
+    <row r="7" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B7" s="85" t="s">
+        <v>72</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="59">
         <f>(1-0.04)*D3</f>
@@ -7539,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J7" s="59">
         <f>D7/Info!H$3</f>
@@ -7550,10 +7807,10 @@
         <v>0.90054796875761156</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
+    <row r="8" spans="2:11" ht="30.75">
+      <c r="B8" s="85"/>
       <c r="C8" s="39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D8" s="59">
         <f>(1-0.1)*D3</f>
@@ -7575,7 +7832,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J8" s="59">
         <f>D8/Info!H$3</f>
@@ -7586,10 +7843,10 @@
         <v>0.95250265926285826</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="87"/>
+    <row r="9" spans="2:11" ht="30.75">
+      <c r="B9" s="85"/>
       <c r="C9" s="39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" s="59">
         <f>-0.04*D3</f>
@@ -7611,7 +7868,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J9" s="59">
         <f>D9/Info!H$3</f>
@@ -7622,10 +7879,10 @@
         <v>1.1285061006414492</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
+    <row r="10" spans="2:11" ht="30.75">
+      <c r="B10" s="85"/>
       <c r="C10" s="39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" s="59">
         <f>-0.1*D3</f>
@@ -7656,7 +7913,7 @@
         <v>1.180460791146696</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="F15" s="77">
         <f>F7</f>
         <v>8.1952702869198522</v>
@@ -7666,7 +7923,7 @@
         <v>8.8782094774965064</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="F16" s="77">
         <f t="shared" ref="F16:G16" si="0">F8</f>
         <v>7.6830658939873615</v>
@@ -7676,7 +7933,7 @@
         <v>9.3904138704289988</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7">
       <c r="F17" s="77">
         <f t="shared" ref="F17:G17" si="1">F9</f>
         <v>-0.34146959528832715</v>
@@ -7686,7 +7943,7 @@
         <v>11.125574545406867</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7">
       <c r="F18" s="77">
         <f t="shared" ref="F18:G18" si="2">F10</f>
         <v>-0.85367398822081797</v>
@@ -7708,14 +7965,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:N13"/>
   <sheetViews>
     <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -7732,81 +7989,81 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="45">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
       <c r="J6" s="48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:14" ht="18.75">
+      <c r="B7" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.25</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.24399999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -7839,12 +8096,12 @@
         <v>3.5169658432277311</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="94"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="18.75">
+      <c r="B8" s="92"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -7877,12 +8134,12 @@
         <v>3.840686562888465</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="94"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:14" ht="30.75">
+      <c r="B9" s="92"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -7915,12 +8172,12 @@
         <v>4.6164750735250566</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="94"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:14" ht="30.75">
+      <c r="B10" s="92"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -7953,12 +8210,12 @@
         <v>5.0820761131091521</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="94"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+    <row r="11" spans="2:14" ht="30.75">
+      <c r="B11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="39" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
@@ -7991,12 +8248,12 @@
         <v>5.3801664373667117</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="94"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+    <row r="12" spans="2:14" ht="30.75">
+      <c r="B12" s="92"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
@@ -8029,12 +8286,12 @@
         <v>6.0250229663769241</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+    <row r="13" spans="2:14" ht="30.75">
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F13" s="44">
         <v>0</v>
@@ -8080,14 +8337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:N18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -8103,58 +8360,58 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -8164,18 +8421,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B7" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.15</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.14399999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F7" s="59">
         <v>0</v>
@@ -8208,12 +8465,12 @@
         <v>4.1188470176342804</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="30.75">
+      <c r="B8" s="85"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F8" s="59">
         <v>0</v>
@@ -8246,12 +8503,12 @@
         <v>4.2857144190630994</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="87"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:14" ht="30.75">
+      <c r="B9" s="85"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F9" s="59">
         <v>0</v>
@@ -8284,12 +8541,12 @@
         <v>4.5407951542869407</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:14" ht="30.75">
+      <c r="B10" s="85"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F10" s="59">
         <v>0</v>
@@ -8322,12 +8579,12 @@
         <v>4.9987633899434281</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+    <row r="11" spans="2:14" ht="30.75">
+      <c r="B11" s="85"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="39" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" s="59">
         <v>0</v>
@@ -8360,12 +8617,12 @@
         <v>5.2919669875738142</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+    <row r="12" spans="2:14" ht="30.75">
+      <c r="B12" s="85"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F12" s="59">
         <v>0</v>
@@ -8398,12 +8655,12 @@
         <v>5.926252098075663</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="87"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+    <row r="13" spans="2:14" ht="30.75">
+      <c r="B13" s="85"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F13" s="59">
         <v>0</v>
@@ -8436,12 +8693,12 @@
         <v>6.3612283268121796</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="87"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
+    <row r="14" spans="2:14" ht="45.75">
+      <c r="B14" s="85"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="59">
         <v>0</v>
@@ -8458,7 +8715,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K14" s="44">
         <f t="shared" si="1"/>
@@ -8471,7 +8728,7 @@
       <c r="M14" s="51"/>
       <c r="N14" s="51"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7">
       <c r="G18" s="40"/>
     </row>
   </sheetData>
@@ -8487,14 +8744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:N12"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
@@ -8510,58 +8767,58 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="80" t="s">
+    <row r="5" spans="2:14" ht="56.25" customHeight="1">
+      <c r="B5" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="80" t="s">
-        <v>77</v>
+      <c r="G5" s="90"/>
+      <c r="H5" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="L5" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -8571,18 +8828,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:14" ht="50.25" customHeight="1">
+      <c r="B7" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.05</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.05</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="F7" s="59">
         <v>0</v>
@@ -8616,12 +8873,12 @@
         <v>4.1188470176342795</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="30.75">
+      <c r="B8" s="85"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="50" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="F8" s="59">
         <v>0</v>
@@ -8655,7 +8912,7 @@
         <v>6.3612283268121796</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14">
       <c r="G12" s="40"/>
     </row>
   </sheetData>
@@ -8671,14 +8928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="33.42578125" style="15" customWidth="1"/>
@@ -8694,64 +8951,64 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14">
       <c r="B2" s="68" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H2" s="40"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="2:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="72.75" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -8761,18 +9018,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="96">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B7" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="94">
         <v>0.15</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="94">
         <v>0.14399999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -8789,7 +9046,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -8808,12 +9065,12 @@
         <v>2.2268852820254548</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+    <row r="8" spans="2:14" ht="30.75">
+      <c r="B8" s="85"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="39" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -8847,12 +9104,12 @@
         <v>2.3171033840090289</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="87"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+    <row r="9" spans="2:14" ht="30.75">
+      <c r="B9" s="85"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -8886,12 +9143,12 @@
         <v>2.4550146811672482</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:14" ht="30.75">
+      <c r="B10" s="85"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -8925,12 +9182,12 @@
         <v>2.7026186148050551</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+    <row r="11" spans="2:14" ht="30.75">
+      <c r="B11" s="85"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="39" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
@@ -8964,12 +9221,12 @@
         <v>2.8611413211363619</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+    <row r="12" spans="2:14" ht="30.75">
+      <c r="B12" s="85"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
@@ -9003,12 +9260,12 @@
         <v>3.2040722848592473</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="87"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+    <row r="13" spans="2:14" ht="30.75">
+      <c r="B13" s="85"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="39" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F13" s="44">
         <v>0</v>
@@ -9024,7 +9281,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="1"/>
@@ -9043,12 +9300,12 @@
         <v>4.6626441103397953</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="87"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
+    <row r="14" spans="2:14" ht="45.75">
+      <c r="B14" s="85"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="39" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F14" s="44">
         <v>0</v>
@@ -9064,7 +9321,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K14" s="44">
         <f t="shared" si="1"/>
@@ -9339,45 +9596,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFA4ABD-F06E-4696-B388-A2D2A8A7DCAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFA4ABD-F06E-4696-B388-A2D2A8A7DCAB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C6A622-D92B-4BBB-8157-73A661038BDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3"/>
-    <ds:schemaRef ds:uri="f65c3edb-e908-4fa9-b879-d5122fbc6460"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C6A622-D92B-4BBB-8157-73A661038BDE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5BBEA7-67A3-432A-AE03-2A734A9CF25D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3"/>
-    <ds:schemaRef ds:uri="f65c3edb-e908-4fa9-b879-d5122fbc6460"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5BBEA7-67A3-432A-AE03-2A734A9CF25D}"/>
 </file>
--- a/data/MagnetStrengthLimits.xlsx
+++ b/data/MagnetStrengthLimits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28712"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365.sharepoint.com/sites/AFSGcopy/Delade dokument/General/WP 03.0 Magnets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18710C86-2052-4690-8704-C3A9E8A4C670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_00D2926716B21C8AB9BF7BD243AA042D25A924A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="2955" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="2955" windowHeight="11850" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -32,31 +32,21 @@
     <sheet name="SextTrimsQ" sheetId="19" r:id="rId17"/>
     <sheet name="Sdend_CombQ" sheetId="23" r:id="rId18"/>
     <sheet name="Sd_CombQ" sheetId="24" r:id="rId19"/>
-    <sheet name="Sd_Comb_Coupled" sheetId="28" r:id="rId20"/>
-    <sheet name="Ver. 0.0 1st Draft" sheetId="5" r:id="rId21"/>
+    <sheet name="Sdend_Comb_Coupled" sheetId="28" r:id="rId20"/>
+    <sheet name="Sd_Comb_Coupled" sheetId="29" r:id="rId21"/>
+    <sheet name="Ver. 0.0 1st Draft" sheetId="5" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="259">
   <si>
     <t>Magnet Strength Limits</t>
   </si>
@@ -197,6 +187,9 @@
     <t>Added coupled combined funcion sextupoles/quadrupoles</t>
   </si>
   <si>
+    <t>Updates to sextupoles. Combined sextupoles and quadrupoles and octupoles.</t>
+  </si>
+  <si>
     <t>Nominal Integrated Field</t>
   </si>
   <si>
@@ -289,7 +282,7 @@
     <t>Modified pole tip + existing range of pole face strips</t>
   </si>
   <si>
-    <t>Maximum is based on 2D calculation (for the  unit cell dipole) with modified pole face angle that allows an increase of the gradient by +/- 26.3 %. Minimum assumes new pole faces are parallel and the same absolute raneg is given by the pole face strips</t>
+    <t>Maximum is based on 2D calculation (for the  unit cell dipole) with modified pole face angle that allows an increase of the gradient by +/- 26.3 %. Minimum assumes new pole faces are parallel and the same absolute range is given by the pole face strips</t>
   </si>
   <si>
     <t>Modified pole tip +extended range of pole face strips</t>
@@ -385,13 +378,19 @@
     <t>as built, measured @ higher current (85 A) , magnet efficiency at 84%</t>
   </si>
   <si>
-    <t>narrower poles + new pole material + thicker pole roots + new ps (110 A)</t>
-  </si>
-  <si>
-    <t>narrower poles + new pole material + thicker pole roots + new ps (110 A) + magnet length increased by 60 mm</t>
-  </si>
-  <si>
-    <t>Space available in U2 and U3 blocks (QF magnets ), not in U1 (Qfm magnets). Valie estimated from scaling with length</t>
+    <t>From Alexey´s Opera 3D calc in QF_upgrade_2024</t>
+  </si>
+  <si>
+    <t>narrower poles + new pole material, new ps (150 A)</t>
+  </si>
+  <si>
+    <t>narrower poles +  thicker pole roots + new ps (150 A)</t>
+  </si>
+  <si>
+    <t>narrower poles +  thicker pole roots + new ps (150 A) + longer magnet by 60 mm</t>
+  </si>
+  <si>
+    <t>Space available in U2 and U3 blocks (QF magnets ), not in U1 (Qfm magnets). Value estimated from scaling with length</t>
   </si>
   <si>
     <t>Xq (new magnet)</t>
@@ -468,34 +467,31 @@
     <t>as built, upgraded power supply (130 A)</t>
   </si>
   <si>
-    <t>Same as existing magnet  + 18 mm longer towards downstream end in M1 and upstream end in M2, 130 A</t>
-  </si>
-  <si>
-    <t>To be calculated, present value obtained scaling with the length</t>
-  </si>
-  <si>
-    <t>conical shaped poles + increase the width  of the pole at the root ,  and return yoke, reduced the pole tip, existing power suppy (100 A) + 18 mm longer as above.</t>
-  </si>
-  <si>
-    <t>To be calculated , the present vaue is s wild guess (15%)</t>
+    <t>OPERA 3D model 30.05.2024, updated by Henrique March 2025</t>
+  </si>
+  <si>
+    <t>Changed pole geometry, same length, new coils max current with new ps (150 A)</t>
+  </si>
+  <si>
+    <t>Calculations by Henrique in Send_Model2025</t>
+  </si>
+  <si>
+    <t>Changed pole geometry, same length, new  max current with new ps (170 A)</t>
+  </si>
+  <si>
+    <t>Changed pole geometry, length increased by 18 mm , new coils,  new ps (170 A)</t>
+  </si>
+  <si>
+    <t>Impact of length increase calculated by scaling</t>
   </si>
   <si>
     <t>Measured values (average all Magnets SDend)</t>
   </si>
   <si>
-    <t>OPERA 3D model</t>
-  </si>
-  <si>
     <t>Imain(A)</t>
   </si>
   <si>
     <t>B"/2·L (T/m)</t>
-  </si>
-  <si>
-    <t>Imain(A), Itrim=0A</t>
-  </si>
-  <si>
-    <t>B"/2·L(T/m)</t>
   </si>
   <si>
     <r>
@@ -522,19 +518,19 @@
     <t>OPERA 3D model 11.06.2024</t>
   </si>
   <si>
-    <t>same as exisrting magnet , 10 mm longer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">narrower poles+remove cutouts </t>
-  </si>
-  <si>
-    <t>From calculations by LJL</t>
-  </si>
-  <si>
-    <t>narrower poles+remove cutouts + 10 mm longer @ 130 A</t>
-  </si>
-  <si>
-    <t>same as abovce scaled by length</t>
+    <t>as built, new power supply (130 A)</t>
+  </si>
+  <si>
+    <t>New pole geometry (narrower pole tips, remove cutouts), same coils</t>
+  </si>
+  <si>
+    <t>From RADIA calculations by Lars-Johan</t>
+  </si>
+  <si>
+    <t>New pole geometry (narrower pole tups, remove cutouts) + 10 mm  longer</t>
+  </si>
+  <si>
+    <t>same as above scaled by length</t>
   </si>
   <si>
     <t>narrower poles + remove cutouts</t>
@@ -564,17 +560,23 @@
     <t>as built, highest current with existing ps ( 100 A)</t>
   </si>
   <si>
-    <t>as exisitng magnet but 35 mm (25 mm upstream, 10mm downstream for the SD upstream of dipole) @ 130 A</t>
-  </si>
-  <si>
-    <t>increase pole width, change coils within the outer envolope + 35 mm longer</t>
+    <t>From calculations by Henrique for the Sdend in SdendModel_2024.xlsx</t>
+  </si>
+  <si>
+    <t>Changed pole geometry, same length, same coils  max current with new ps (170 A)</t>
+  </si>
+  <si>
+    <t>from calculations by Henrique for the Sdend in SdendModel_2024.xlsx</t>
+  </si>
+  <si>
+    <t>Changed pole geometry, new coils, max current with ne ps (170 A)  + 35 mm longer</t>
   </si>
   <si>
     <t xml:space="preserve">Based on Henriques 2D calculations plus scaling with length
 </t>
   </si>
   <si>
-    <t>increase pole width, change coils within the outer envolope + 80 mm longer (requirs new block)</t>
+    <t>Changed pole geometry, new coils, max current with ne ps (170 A)  + 87.5 mm longer - requires new block</t>
   </si>
   <si>
     <t>SFI/SFO</t>
@@ -586,16 +588,28 @@
     <t>as built, measured @ higher current (86.4 A)</t>
   </si>
   <si>
-    <t>as the existing magnet, longer by 10 mm (upstream for the U1 block) @ 130 A</t>
-  </si>
-  <si>
-    <t>Narrower pole + longer maget by 10 mm @ 130 A</t>
-  </si>
-  <si>
-    <t>To be calculated, present number is  a wild guess (15%)</t>
+    <t>Changed pole geometry, same length, same coils max current with new ps (150 A)</t>
+  </si>
+  <si>
+    <t>based on Sdend calculations, scaled for the NI</t>
+  </si>
+  <si>
+    <t>Changed pole geometry, same length, new coils max current with new ps (150 A), longer by 10 mm</t>
+  </si>
+  <si>
+    <t>To be calculated, present value obtained scaling with the length</t>
   </si>
   <si>
     <t>Measured values (average all Magnets Sfi and SFo)</t>
+  </si>
+  <si>
+    <t>OPERA 3D model</t>
+  </si>
+  <si>
+    <t>Imain(A), Itrim=0A</t>
+  </si>
+  <si>
+    <t>B"/2·L(T/m)</t>
   </si>
   <si>
     <t>Integrated Gradient
@@ -644,12 +658,11 @@
 </t>
   </si>
   <si>
-    <t>new ps all achromats + new octupoles with 34 mm bore diamter in achromat 01 (estimate by Åke)</t>
+    <t xml:space="preserve">new ps all achromats + new octupoles with 34 mm bore diamter in achromat 01 </t>
   </si>
   <si>
     <t xml:space="preserve">25 mm aperture - for all achromts except achromat 1, ps at 134 A
-34 mm aperture for achromat 01 , ps at ~500 A .
-To be confirmed
+34 mm aperture for achromat 01 , ps at ~500 A . Based on Alexeys Opera calculation in Oxx_Oxy_Oyy_Model2024.xsx
 </t>
   </si>
   <si>
@@ -678,8 +691,11 @@
 36 mm aperture for achromat 01 , ps at 500 A</t>
   </si>
   <si>
+    <t>new ps all achromats + new octupoles with 34 mm bore diamter in achromat 01.</t>
+  </si>
+  <si>
     <t>25 mm aperture - for all achromats except achromat 1, ps at 134 A
-36 mm aperture for achromat 01 , ps at 500 A</t>
+34 mm aperture for achromat 01 , ps at 500 A. Based on Alexeys Opera calculation in Oxx_Oxy_Oyy_Model2024.xsx</t>
   </si>
   <si>
     <t>38 of the OXYs are today fed from R3_A102011CAB16_MAG_PSDA01. This is a Danfysik 859-1Q 175A/100V . In routin e operation we have 57.3 A/49.6 V</t>
@@ -694,7 +710,7 @@
     <t>as built at 179 A</t>
   </si>
   <si>
-    <t>maximum volatge of existing power supply</t>
+    <t>maximum voltage of existing power supply</t>
   </si>
   <si>
     <t>as built + new power supply at 500 A</t>
@@ -765,13 +781,40 @@
 [T]</t>
   </si>
   <si>
-    <t>From Henrique´s c2D calcualations</t>
-  </si>
-  <si>
-    <t>new poles</t>
-  </si>
-  <si>
-    <t>From Henrique´s c2D calculations</t>
+    <t>Sdend_Comb_Coupled</t>
+  </si>
+  <si>
+    <t>from excitation curve in SdendModel2024 and scaling from from Henrique´s calculations at 130 A in the same file</t>
+  </si>
+  <si>
+    <t>From Henrique´s 2D calcualations in SdendModel 2024.xlsx</t>
+  </si>
+  <si>
+    <t>from Henrique´s calculation in SdendModel2025.xlsx</t>
+  </si>
+  <si>
+    <t>Changed pole geometry, same length, new coils max current with new ps (170 A)</t>
+  </si>
+  <si>
+    <t>scaled from Henrique´s calculations at 150 and 170 A</t>
+  </si>
+  <si>
+    <t>Impact of increased length estimated by scaling</t>
+  </si>
+  <si>
+    <t>Sd_Comb_Coupled</t>
+  </si>
+  <si>
+    <t>From SDModel2024.xlsx and scaling from Sdend calculations in SdendModel2024.xlsx</t>
+  </si>
+  <si>
+    <t>From Henrique´s calculation in SdendModel2025.xlsx</t>
+  </si>
+  <si>
+    <t>Changed pole geometry, length increased by 35 mm , new coils,  new ps (170 A)</t>
+  </si>
+  <si>
+    <t>Changed pole geometry, new coils, max current with new ps (170 A)  + 87.5 mm longer - requires new block</t>
   </si>
   <si>
     <t>Max integrated gradient</t>
@@ -1160,7 +1203,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1292,12 +1335,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1309,6 +1346,15 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1696,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1756,12 +1802,12 @@
       <c r="M5" s="67"/>
     </row>
     <row r="6" spans="2:13" ht="21">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
       <c r="G6" s="66" t="s">
         <v>6</v>
       </c>
@@ -2164,11 +2210,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
+    <row r="35" spans="2:5" ht="30">
+      <c r="B35" s="5">
+        <v>45731</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="5"/>
@@ -2313,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B4:N28"/>
+  <dimension ref="B4:N27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2326,8 +2380,7 @@
     <col min="3" max="3" width="8.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="15" customWidth="1"/>
     <col min="5" max="5" width="52.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="15" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="15" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" style="15" customWidth="1"/>
     <col min="10" max="10" width="53.42578125" style="15" customWidth="1"/>
@@ -2341,41 +2394,41 @@
     </row>
     <row r="5" spans="2:14" ht="56.25">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -2384,10 +2437,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -2398,17 +2451,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="95">
+      <c r="B7" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="96">
         <v>0.1026</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -2442,11 +2495,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B8" s="92"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -2480,11 +2533,11 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="30.75" customHeight="1">
-      <c r="B9" s="92"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -2500,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
@@ -2519,28 +2572,28 @@
         <v>210.42246433157189</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B10" s="92"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+    <row r="10" spans="2:14" ht="33" customHeight="1">
+      <c r="B10" s="93"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
       </c>
       <c r="G10" s="45">
-        <v>232.00399999999999</v>
+        <v>240.2</v>
       </c>
       <c r="H10" s="45">
         <f t="shared" si="0"/>
-        <v>2261.2475633528265</v>
+        <v>2341.1306042884989</v>
       </c>
       <c r="I10" s="46">
         <v>2</v>
       </c>
-      <c r="J10" s="28" t="s">
-        <v>120</v>
+      <c r="J10" s="50" t="s">
+        <v>125</v>
       </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
@@ -2548,7 +2601,7 @@
       </c>
       <c r="L10" s="45">
         <f t="shared" si="2"/>
-        <v>2320.04</v>
+        <v>2401.9999999999995</v>
       </c>
       <c r="M10" s="51">
         <f>K10/Info!H$3</f>
@@ -2556,32 +2609,31 @@
       </c>
       <c r="N10" s="51">
         <f>L10/Info!H$3</f>
-        <v>231.80401803755865</v>
+        <v>239.99295327934681</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="92"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="50" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
       </c>
       <c r="G11" s="45">
-        <f>G10*(D7+0.018)/D7</f>
-        <v>272.70645614035084</v>
+        <v>338.5</v>
       </c>
       <c r="H11" s="45">
         <f t="shared" si="0"/>
-        <v>2657.9576621866554</v>
+        <v>3299.2202729044834</v>
       </c>
       <c r="I11" s="46">
         <v>3</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K11" s="44">
         <f t="shared" ref="K11:K12" si="3">F11/C$7</f>
@@ -2589,7 +2641,7 @@
       </c>
       <c r="L11" s="45">
         <f t="shared" ref="L11:L12" si="4">G11/C$7</f>
-        <v>2727.0645614035084</v>
+        <v>3385</v>
       </c>
       <c r="M11" s="51">
         <f>K11/Info!H$3</f>
@@ -2597,32 +2649,31 @@
       </c>
       <c r="N11" s="51">
         <f>L11/Info!H$3</f>
-        <v>272.47138962309521</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="45.75">
+        <v>338.20822100357583</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="30.75">
       <c r="B12" s="93"/>
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="50" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
       </c>
       <c r="G12" s="45">
-        <f>1.15*G10*(D7+0.018)/D7</f>
-        <v>313.61242456140349</v>
+        <v>366.95</v>
       </c>
       <c r="H12" s="45">
         <f t="shared" si="0"/>
-        <v>3056.651311514654</v>
+        <v>3576.5107212475632</v>
       </c>
       <c r="I12" s="46">
         <v>4</v>
       </c>
-      <c r="J12" s="41" t="s">
-        <v>125</v>
+      <c r="J12" s="50" t="s">
+        <v>127</v>
       </c>
       <c r="K12" s="44">
         <f t="shared" si="3"/>
@@ -2630,157 +2681,146 @@
       </c>
       <c r="L12" s="45">
         <f t="shared" si="4"/>
-        <v>3136.1242456140349</v>
-      </c>
-      <c r="M12" s="51">
-        <f>K12/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="51">
-        <f>L12/Info!H$3</f>
-        <v>313.34209806655952</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="J13" s="40"/>
+        <v>3669.4999999999995</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+    </row>
+    <row r="13" spans="2:14" ht="30.75">
+      <c r="B13" s="94"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0</v>
+      </c>
+      <c r="G13" s="45">
+        <f>G12*(D7+0.018)/D7</f>
+        <v>431.3271929824561</v>
+      </c>
+      <c r="H13" s="45">
+        <f t="shared" ref="H13" si="5">G13/D$7</f>
+        <v>4203.968742519065</v>
+      </c>
+      <c r="I13" s="46">
+        <v>5</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="44">
+        <f t="shared" ref="K13" si="6">F13/C$7</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
+        <f t="shared" ref="L13" si="7">G13/C$7</f>
+        <v>4313.2719298245611</v>
+      </c>
+      <c r="M13" s="51">
+        <f>K13/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="51">
+        <f>L13/Info!H$3</f>
+        <v>430.95539914050966</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="4:9">
       <c r="D18" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="H18" s="15" t="s">
-        <v>127</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="4:9">
-      <c r="D19" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>131</v>
-      </c>
+      <c r="D19" s="56">
+        <v>0</v>
+      </c>
+      <c r="E19" s="56">
+        <v>1.3205352050000001</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="4:9">
       <c r="D20" s="56">
-        <v>0</v>
+        <v>18.638670000000001</v>
       </c>
       <c r="E20" s="56">
-        <v>1.3205352050000001</v>
-      </c>
-      <c r="H20" s="56">
-        <v>0</v>
-      </c>
-      <c r="I20" s="56">
-        <v>0</v>
-      </c>
+        <v>48.828032460000003</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="4:9">
       <c r="D21" s="56">
-        <v>18.638670000000001</v>
+        <v>37.286619999999999</v>
       </c>
       <c r="E21" s="56">
-        <v>48.828032460000003</v>
-      </c>
-      <c r="H21" s="56">
-        <v>56</v>
-      </c>
-      <c r="I21" s="56">
-        <v>142.5324</v>
-      </c>
+        <v>96.042909750000007</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="4:9">
       <c r="D22" s="56">
-        <v>37.286619999999999</v>
+        <v>55.938049999999997</v>
       </c>
       <c r="E22" s="56">
-        <v>96.042909750000007</v>
-      </c>
-      <c r="H22" s="56">
-        <v>70</v>
-      </c>
-      <c r="I22" s="56">
-        <v>175.3176</v>
-      </c>
+        <v>142.47481060000001</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="4:9">
       <c r="D23" s="56">
-        <v>55.938049999999997</v>
+        <v>74.584919999999997</v>
       </c>
       <c r="E23" s="56">
-        <v>142.47481060000001</v>
-      </c>
-      <c r="H23" s="56">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="I23" s="56">
-        <v>183.03319999999999</v>
-      </c>
+        <v>182.07576420000001</v>
+      </c>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="4:9">
       <c r="D24" s="56">
-        <v>74.584919999999997</v>
+        <v>82.046189999999996</v>
       </c>
       <c r="E24" s="56">
-        <v>182.07576420000001</v>
-      </c>
-      <c r="H24" s="56">
-        <v>82</v>
-      </c>
-      <c r="I24" s="56">
-        <v>192.6122</v>
-      </c>
+        <v>192.0789259</v>
+      </c>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="4:9">
-      <c r="D25" s="56">
-        <v>82.046189999999996</v>
-      </c>
-      <c r="E25" s="56">
-        <v>192.0789259</v>
-      </c>
-      <c r="H25" s="56">
-        <v>90</v>
-      </c>
-      <c r="I25" s="56">
-        <v>201.322</v>
-      </c>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" spans="4:9">
-      <c r="H26" s="56">
-        <v>100</v>
-      </c>
-      <c r="I26" s="56">
-        <v>210.60400000000001</v>
-      </c>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" spans="4:9">
-      <c r="H27" s="56">
-        <v>110</v>
-      </c>
-      <c r="I27" s="56">
-        <v>218.58199999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9">
-      <c r="H28" s="56">
-        <v>130</v>
-      </c>
-      <c r="I28" s="56">
-        <v>232.00399999999999</v>
-      </c>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2789,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="B4:N18"/>
+  <dimension ref="B4:N17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2817,41 +2857,41 @@
     </row>
     <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -2860,10 +2900,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -2874,17 +2914,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.10299999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -2918,11 +2958,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B8" s="98"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -2931,7 +2971,7 @@
         <v>190.17500000000001</v>
       </c>
       <c r="H8" s="49">
-        <f t="shared" ref="H8:H13" si="0">G8/D$7</f>
+        <f t="shared" ref="H8:H12" si="0">G8/D$7</f>
         <v>1846.3592233009711</v>
       </c>
       <c r="I8" s="46">
@@ -2956,11 +2996,11 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="98"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -2976,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
@@ -2996,11 +3036,11 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="39" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -3016,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
@@ -3036,133 +3076,92 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="98"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="39" t="s">
-        <v>134</v>
+      <c r="B11" s="99"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="50" t="s">
+        <v>137</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
       </c>
       <c r="G11" s="45">
-        <f>G10*(D7+0.01)/D7</f>
-        <v>246.33341747572814</v>
+        <v>316</v>
       </c>
       <c r="H11" s="49">
         <f t="shared" si="0"/>
-        <v>2391.5865774342537</v>
+        <v>3067.961165048544</v>
       </c>
       <c r="I11" s="46">
         <v>3</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K11" s="44">
-        <f t="shared" ref="K11:K12" si="3">F11/C$7</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="45">
-        <f t="shared" ref="L11:L13" si="4">G11/C$7</f>
-        <v>2463.3341747572813</v>
-      </c>
-      <c r="M11" s="51">
-        <f>K11/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="51">
-        <f>L11/Info!H$3</f>
-        <v>246.12108389423091</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="18.75">
-      <c r="B12" s="98"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+        <f t="shared" ref="K11" si="3">F11/C$7</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="45"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+    </row>
+    <row r="12" spans="2:14" ht="30.75">
+      <c r="B12" s="99"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="50" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
       </c>
       <c r="G12" s="45">
-        <v>316</v>
+        <f>G11*1.1</f>
+        <v>347.6</v>
       </c>
       <c r="H12" s="49">
         <f t="shared" si="0"/>
-        <v>3067.961165048544</v>
+        <v>3374.7572815533986</v>
       </c>
       <c r="I12" s="46">
         <v>4</v>
       </c>
-      <c r="J12" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="45"/>
+      <c r="J12" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45">
+        <f t="shared" ref="L12" si="4">G12/C$7</f>
+        <v>3476</v>
+      </c>
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
     </row>
-    <row r="13" spans="2:14" ht="30.75">
-      <c r="B13" s="98"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="44">
-        <v>0</v>
-      </c>
-      <c r="G13" s="45">
-        <f>G12*1.1</f>
-        <v>347.6</v>
-      </c>
-      <c r="H13" s="49">
-        <f t="shared" si="0"/>
-        <v>3374.7572815533986</v>
-      </c>
-      <c r="I13" s="46">
-        <v>5</v>
-      </c>
-      <c r="J13" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45">
-        <f t="shared" si="4"/>
-        <v>3476</v>
-      </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
+    <row r="15" spans="2:14">
+      <c r="J15" s="69" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="J16" s="71" t="s">
-        <v>139</v>
+      <c r="J16" s="40" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="10:11">
       <c r="J17" s="40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B7:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3171,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="B4:N18"/>
+  <dimension ref="B4:N19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3183,7 +3182,7 @@
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="15" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="15" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="15" customWidth="1"/>
@@ -3199,41 +3198,41 @@
     </row>
     <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -3242,10 +3241,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -3255,18 +3254,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75">
-      <c r="B7" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="94">
+    <row r="7" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B7" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="96">
         <v>0.10199999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -3282,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -3301,12 +3300,12 @@
         <v>117.68047470086607</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B8" s="93"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -3315,7 +3314,7 @@
         <v>138.88399999999999</v>
       </c>
       <c r="H8" s="45">
-        <f t="shared" ref="H8:H13" si="0">G8/D$7</f>
+        <f t="shared" ref="H8:H14" si="0">G8/D$7</f>
         <v>1361.6078431372548</v>
       </c>
       <c r="I8" s="46">
@@ -3339,12 +3338,12 @@
         <v>138.76428527580683</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+    <row r="9" spans="2:14" ht="18.75">
+      <c r="B9" s="93"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -3360,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
@@ -3379,12 +3378,12 @@
         <v>192.00495348652811</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B10" s="93"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="39" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -3400,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
@@ -3419,70 +3418,64 @@
         <v>213.03021457328333</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="45.75">
-      <c r="B11" s="70"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="39" t="s">
-        <v>148</v>
+    <row r="11" spans="2:14" ht="30.75">
+      <c r="B11" s="93"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="50" t="s">
+        <v>126</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
       </c>
       <c r="G11" s="45">
-        <f>G10*(D7+0.03)/D7</f>
-        <v>275.92400000000004</v>
+        <f>338.474784119418</f>
+        <v>338.47478411941802</v>
       </c>
       <c r="H11" s="45">
         <f t="shared" si="0"/>
-        <v>2705.1372549019611</v>
+        <v>3318.3802364648827</v>
       </c>
       <c r="I11" s="46">
         <v>3</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="K11" s="44">
-        <f t="shared" ref="K11:K13" si="3">F11/C$7</f>
+        <f t="shared" ref="K11:K12" si="3">F11/C$7</f>
         <v>0</v>
       </c>
       <c r="L11" s="45">
-        <f t="shared" ref="L11:L13" si="4">G11/C$7</f>
-        <v>2759.2400000000002</v>
-      </c>
-      <c r="M11" s="51">
-        <f>K11/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="51">
-        <f>L11/Info!H$3</f>
-        <v>275.68616003601375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="45.75">
-      <c r="B12" s="70"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
+        <f t="shared" ref="L11:L12" si="4">G11/C$7</f>
+        <v>3384.7478411941802</v>
+      </c>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+    </row>
+    <row r="12" spans="2:14" ht="30.75">
+      <c r="B12" s="93"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
       </c>
       <c r="G12" s="45">
-        <f>340.16*1.35</f>
-        <v>459.21600000000007</v>
+        <f>366.95</f>
+        <v>366.95</v>
       </c>
       <c r="H12" s="45">
         <f t="shared" si="0"/>
-        <v>4502.1176470588243</v>
+        <v>3597.5490196078431</v>
       </c>
       <c r="I12" s="46">
         <v>4</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K12" s="44">
         <f t="shared" si="3"/>
@@ -3490,7 +3483,7 @@
       </c>
       <c r="L12" s="45">
         <f t="shared" si="4"/>
-        <v>4592.1600000000008</v>
+        <v>3669.4999999999995</v>
       </c>
       <c r="M12" s="51">
         <f>K12/Info!H$3</f>
@@ -3498,40 +3491,40 @@
       </c>
       <c r="N12" s="51">
         <f>L12/Info!H$3</f>
-        <v>458.82016666581416</v>
+        <v>366.63369777625445</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="45.75">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F13" s="44">
         <v>0</v>
       </c>
       <c r="G13" s="45">
-        <f>340.16*(D7+0.08)/D7</f>
-        <v>606.95215686274514</v>
+        <f>G12*(D7+0.035)/D7</f>
+        <v>492.86421568627458</v>
       </c>
       <c r="H13" s="45">
         <f t="shared" si="0"/>
-        <v>5950.5113417916191</v>
+        <v>4832.0021145713199</v>
       </c>
       <c r="I13" s="46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K13" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K13:K14" si="5">F13/C$7</f>
         <v>0</v>
       </c>
       <c r="L13" s="45">
-        <f t="shared" si="4"/>
-        <v>6069.5215686274514</v>
+        <f t="shared" ref="L13:L14" si="6">G13/C$7</f>
+        <v>4928.6421568627457</v>
       </c>
       <c r="M13" s="51">
         <f>K13/Info!H$3</f>
@@ -3539,21 +3532,62 @@
       </c>
       <c r="N13" s="51">
         <f>L13/Info!H$3</f>
-        <v>606.42897845445293</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="J14" s="40"/>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" s="40"/>
+        <v>492.43937838575363</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="45.75">
+      <c r="B14" s="94"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="44">
+        <v>0</v>
+      </c>
+      <c r="G14" s="45">
+        <f>G12*(D7+0.0875)/D7</f>
+        <v>681.73553921568634</v>
+      </c>
+      <c r="H14" s="45">
+        <f t="shared" si="0"/>
+        <v>6683.6817570165331</v>
+      </c>
+      <c r="I14" s="46">
+        <v>10</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="45">
+        <f t="shared" si="6"/>
+        <v>6817.3553921568628</v>
+      </c>
+      <c r="M14" s="51">
+        <f>K14/Info!H$3</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="51">
+        <f>L14/Info!H$3</f>
+        <v>681.14789930000222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="J15" s="40"/>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B7:B14"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="C7:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3564,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B4:N34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3590,41 +3624,41 @@
     </row>
     <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -3633,10 +3667,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -3647,17 +3681,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.10340000000000001</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -3691,11 +3725,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -3729,11 +3763,11 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -3749,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
@@ -3769,11 +3803,11 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="39" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -3789,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
@@ -3809,77 +3843,65 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="99"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="39" t="s">
-        <v>155</v>
+      <c r="B11" s="100"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="50" t="s">
+        <v>159</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
       </c>
       <c r="G11" s="45">
-        <f>G10*(D7+0.01)/D7</f>
-        <v>283.2894313346228</v>
+        <f>Sdend!G11*15/13</f>
+        <v>390.57692307692309</v>
       </c>
       <c r="H11" s="45">
         <f t="shared" si="0"/>
-        <v>2739.7430496578604</v>
+        <v>3777.3396815950009</v>
       </c>
       <c r="I11" s="46">
         <v>3</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" s="44">
-        <f t="shared" ref="K11:K12" si="3">F11/C$7</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="45">
-        <f t="shared" ref="L11:L12" si="4">G11/C$7</f>
-        <v>2832.894313346228</v>
-      </c>
-      <c r="M11" s="51">
-        <f>K11/Info!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="51">
-        <f>L11/Info!H$3</f>
-        <v>283.04524254297615</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="30.75">
-      <c r="B12" s="99"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="J11" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+    </row>
+    <row r="12" spans="2:14" ht="45.75">
+      <c r="B12" s="100"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="50" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
       </c>
       <c r="G12" s="45">
-        <f>G11*1.15</f>
-        <v>325.7828460348162</v>
+        <f>G11*(D7+0.01)/D7</f>
+        <v>428.35031989287307</v>
       </c>
       <c r="H12" s="45">
         <f t="shared" si="0"/>
-        <v>3150.7045071065395</v>
+        <v>4142.6529970297197</v>
       </c>
       <c r="I12" s="46">
         <v>4</v>
       </c>
-      <c r="J12" s="72" t="s">
-        <v>157</v>
+      <c r="J12" s="50" t="s">
+        <v>162</v>
       </c>
       <c r="K12" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K12" si="3">F12/C$7</f>
         <v>0</v>
       </c>
       <c r="L12" s="45">
-        <f t="shared" si="4"/>
-        <v>3257.828460348162</v>
+        <f t="shared" ref="L12" si="4">G12/C$7</f>
+        <v>4283.5031989287309</v>
       </c>
       <c r="M12" s="51">
         <f>K12/Info!H$3</f>
@@ -3887,30 +3909,30 @@
       </c>
       <c r="N12" s="51">
         <f>L12/Info!H$3</f>
-        <v>325.50202892442252</v>
+        <v>427.98109204514395</v>
       </c>
     </row>
     <row r="22" spans="4:12">
       <c r="D22" s="56" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E22" s="56"/>
       <c r="H22" s="15" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="30">
       <c r="D23" s="58" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H23" s="57" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L23" s="56"/>
     </row>
@@ -4074,8 +4096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B4:N22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4100,41 +4122,41 @@
     </row>
     <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -4143,10 +4165,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -4157,17 +4179,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="45.75">
-      <c r="B7" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.1008</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -4183,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -4203,11 +4225,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="30.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -4223,7 +4245,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K8" s="44">
         <f>F8/C$7</f>
@@ -4243,11 +4265,11 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="45.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -4263,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="K9" s="44">
         <f>F9/C$7</f>
@@ -4283,28 +4305,27 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="60.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="39" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
       </c>
       <c r="G10" s="49">
-        <f>G9*1.25</f>
-        <v>8244.8188856399993</v>
+        <v>7988.83</v>
       </c>
       <c r="H10" s="49">
         <f>G10/D$7</f>
-        <v>81793.838151190474</v>
+        <v>79254.265873015873</v>
       </c>
       <c r="I10" s="46">
         <v>4</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K10" s="44">
         <f>F10/C$7</f>
@@ -4312,7 +4333,7 @@
       </c>
       <c r="L10" s="45">
         <f>G10/C$7</f>
-        <v>82448.188856399982</v>
+        <v>79888.299999999988</v>
       </c>
       <c r="M10" s="51">
         <f>K10/Info!H$3</f>
@@ -4320,46 +4341,46 @@
       </c>
       <c r="N10" s="51">
         <f>L10/Info!H$3</f>
-        <v>8237.7120467030672</v>
+        <v>7981.9438174298266</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="G11" s="40"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="73" t="s">
-        <v>173</v>
+      <c r="B12" s="71" t="s">
+        <v>181</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="M12" s="74">
+        <v>184</v>
+      </c>
+      <c r="M12" s="72">
         <f>28.3/29.85*60</f>
         <v>56.884422110552762</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="C13" s="40" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M13" s="15">
         <f>15/1*41.4</f>
         <v>621</v>
       </c>
       <c r="N13" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:14">
@@ -4395,7 +4416,7 @@
   <dimension ref="B4:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4420,41 +4441,41 @@
     </row>
     <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -4463,10 +4484,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -4477,17 +4498,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="45.75">
-      <c r="B7" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="95">
+      <c r="B7" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="95">
+      <c r="D7" s="96">
         <v>0.1008</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -4503,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -4522,29 +4543,28 @@
         <v>6590.1705280820133</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="45.75">
-      <c r="B8" s="93"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
+    <row r="8" spans="2:14" ht="60.75">
+      <c r="B8" s="94"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="39" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
       </c>
       <c r="G8" s="49">
-        <f>G7*1.25</f>
-        <v>8244.82</v>
+        <v>7988.83</v>
       </c>
       <c r="H8" s="49">
         <f>G8/D$7</f>
-        <v>81793.849206349201</v>
+        <v>79254.265873015873</v>
       </c>
       <c r="I8" s="46">
         <v>2</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K8" s="44">
         <f>F8/C$7</f>
@@ -4552,7 +4572,7 @@
       </c>
       <c r="L8" s="45">
         <f>G8/C$7</f>
-        <v>82448.2</v>
+        <v>79888.299999999988</v>
       </c>
       <c r="M8" s="51">
         <f>K8/Info!H$3</f>
@@ -4560,42 +4580,42 @@
       </c>
       <c r="N8" s="51">
         <f>L8/Info!H$3</f>
-        <v>8237.7131601025158</v>
+        <v>7981.9438174298266</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="40" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="K10" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="M10" s="75">
+        <v>184</v>
+      </c>
+      <c r="M10" s="73">
         <f>100/49.6*57.3</f>
         <v>115.52419354838709</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="C11" s="40" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M11" s="15">
         <f>254*22/8</f>
         <v>698.5</v>
       </c>
       <c r="N11" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:14">
@@ -4605,11 +4625,11 @@
       <c r="E15" s="40"/>
       <c r="J15" s="15">
         <f>107*G8/G7</f>
-        <v>133.75</v>
+        <v>129.59725166832021</v>
       </c>
     </row>
     <row r="17" spans="7:8">
-      <c r="G17" s="76"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="40"/>
     </row>
     <row r="21" spans="7:8">
@@ -4631,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B4:N15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4657,41 +4677,41 @@
     </row>
     <row r="5" spans="2:14" ht="75">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -4700,10 +4720,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -4714,22 +4734,22 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="99" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="100" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.1</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="49">
         <v>2530.1138853999996</v>
       </c>
       <c r="H7" s="45">
@@ -4740,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -4760,16 +4780,16 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="49">
         <v>6595.8559999999989</v>
       </c>
       <c r="H8" s="45">
@@ -4780,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K8" s="44">
         <f t="shared" ref="K8" si="1">F8/C$7</f>
@@ -4800,28 +4820,27 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
       </c>
-      <c r="G9" s="45">
-        <f>6595.856*1.25</f>
-        <v>8244.82</v>
+      <c r="G9" s="49">
+        <v>7988.83</v>
       </c>
       <c r="H9" s="45">
         <f t="shared" ref="H9" si="3">G9/D$7</f>
-        <v>82448.2</v>
+        <v>79888.299999999988</v>
       </c>
       <c r="I9" s="46">
         <v>3</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K9" s="44">
         <f t="shared" ref="K9" si="4">F9/C$7</f>
@@ -4829,7 +4848,7 @@
       </c>
       <c r="L9" s="45">
         <f t="shared" ref="L9" si="5">G9/C$7</f>
-        <v>82448.2</v>
+        <v>79888.299999999988</v>
       </c>
       <c r="M9" s="51">
         <f>K9/Info!H$3</f>
@@ -4837,25 +4856,25 @@
       </c>
       <c r="N9" s="51">
         <f>L9/Info!H$3</f>
-        <v>8237.7131601025158</v>
+        <v>7981.9438174298266</v>
       </c>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="40" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M12" s="15">
         <f>110/58.3*94.9</f>
         <v>179.05660377358492</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -4870,7 +4889,7 @@
     </row>
     <row r="15" spans="2:14">
       <c r="E15" s="40" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J15" s="15">
         <f>225*J14</f>
@@ -4918,35 +4937,35 @@
     </row>
     <row r="5" spans="2:12" ht="56.25">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="21">
@@ -4955,10 +4974,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -4967,17 +4986,17 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="2:12" ht="30.75">
-      <c r="B7" s="99" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.1</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -4993,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K7" s="60">
         <f>F7/Info!H$3</f>
@@ -5005,11 +5024,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -5035,9 +5054,9 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="18.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
@@ -5048,9 +5067,9 @@
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="2:12" ht="18.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
@@ -5098,7 +5117,7 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="40" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -5106,35 +5125,35 @@
     </row>
     <row r="5" spans="2:12" ht="56.25">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="21">
@@ -5143,10 +5162,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -5155,17 +5174,17 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="2:12" ht="18.75">
-      <c r="B7" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.1</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -5181,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="K7" s="60">
         <f>F7/Info!H$3</f>
@@ -5193,11 +5212,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -5213,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="K8" s="60">
         <f>F8/Info!H$3</f>
@@ -5225,9 +5244,9 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="18.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
@@ -5238,9 +5257,9 @@
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="2:12" ht="18.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
@@ -5288,7 +5307,7 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="40" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -5296,37 +5315,37 @@
     </row>
     <row r="5" spans="2:14" ht="56.25">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -5335,10 +5354,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
@@ -5349,17 +5368,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="18.75">
-      <c r="B7" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.1</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -5376,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M7" s="60">
         <f>F7/Info!H$3</f>
@@ -5388,11 +5407,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -5409,7 +5428,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M8" s="60">
         <f>F8/Info!H$3</f>
@@ -5421,9 +5440,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="18.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
@@ -5436,9 +5455,9 @@
       <c r="N9" s="28"/>
     </row>
     <row r="10" spans="2:14" ht="18.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
@@ -5466,8 +5485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5487,7 +5506,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75">
       <c r="C2" s="62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="64">
         <v>0.26198062393930399</v>
@@ -5496,21 +5515,21 @@
         <v>3</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75">
       <c r="C3" s="62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="63">
         <v>393</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -5518,40 +5537,40 @@
     </row>
     <row r="5" spans="2:9" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="84"/>
+      <c r="D5" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="85"/>
       <c r="F5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
-        <v>52</v>
+      <c r="B7" s="86" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="51">
         <v>0</v>
@@ -5566,9 +5585,9 @@
       <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:9" ht="30.75">
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="51">
         <v>0</v>
@@ -5583,7 +5602,7 @@
       <c r="G8" s="50"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="E13" s="78"/>
+      <c r="E13" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5597,10 +5616,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5609,7 +5628,7 @@
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="15" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="15" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
     <col min="8" max="9" width="8.5703125" style="15" customWidth="1"/>
@@ -5620,7 +5639,7 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="40" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -5628,141 +5647,204 @@
     </row>
     <row r="5" spans="2:11" ht="78" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="I5" s="101"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="102"/>
       <c r="J5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="21">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>50</v>
-      </c>
       <c r="I6" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="42"/>
       <c r="K6" s="48"/>
     </row>
-    <row r="7" spans="2:11" ht="18.75">
-      <c r="B7" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="94">
+    <row r="7" spans="2:11" ht="45.75">
+      <c r="B7" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="96">
         <v>0.1</v>
       </c>
-      <c r="D7" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="44">
-        <v>139.9</v>
-      </c>
-      <c r="G7" s="51">
-        <v>240.2</v>
-      </c>
-      <c r="H7" s="51">
-        <v>0</v>
-      </c>
-      <c r="I7" s="61">
-        <v>0.89800000000000002</v>
+      <c r="D7" s="96">
+        <v>0.1026</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="80">
+        <f>F8*G7/G8</f>
+        <v>122.66236303080768</v>
+      </c>
+      <c r="G7" s="80">
+        <v>210.60400000000001</v>
+      </c>
+      <c r="H7" s="80">
+        <f t="shared" ref="H7" si="0">H8/1.3</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="80">
+        <f>I8*G7/G8</f>
+        <v>0.78735383846794349</v>
       </c>
       <c r="J7" s="46">
         <v>1</v>
       </c>
-      <c r="K7" s="41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="18.75">
-      <c r="B8" s="99"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="K7" s="50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B8" s="93"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="44">
-        <v>221.3</v>
+        <v>124</v>
+      </c>
+      <c r="F8" s="59">
+        <v>139.9</v>
       </c>
       <c r="G8" s="51">
-        <v>340.16</v>
+        <v>240.2</v>
       </c>
       <c r="H8" s="51">
         <v>0</v>
       </c>
       <c r="I8" s="51">
-        <v>0.82</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="J8" s="46">
         <v>2</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="18.75">
-      <c r="B9" s="99"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="2:11" ht="18.75">
-      <c r="B10" s="99"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="28"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="33" customHeight="1">
+      <c r="B9" s="93"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="59">
+        <v>171.1</v>
+      </c>
+      <c r="G9" s="51">
+        <v>338.5</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0</v>
+      </c>
+      <c r="I9" s="51">
+        <v>1.161</v>
+      </c>
+      <c r="J9" s="46">
+        <v>3</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="30.75">
+      <c r="B10" s="93"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="59">
+        <f>F9*G10/G9</f>
+        <v>185.48048744460857</v>
+      </c>
+      <c r="G10" s="51">
+        <v>366.95</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0</v>
+      </c>
+      <c r="I10" s="51">
+        <f>I9*G10/G9</f>
+        <v>1.2585788774002955</v>
+      </c>
+      <c r="J10" s="46">
+        <v>4</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="30.75">
+      <c r="B11" s="94"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="59">
+        <f>F10*($D7+0.018)/$D7</f>
+        <v>218.02092383839957</v>
+      </c>
+      <c r="G11" s="51">
+        <f t="shared" ref="G11:I11" si="1">G10*($D7+0.018)/$D7</f>
+        <v>431.3271929824561</v>
+      </c>
+      <c r="H11" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="51">
+        <f t="shared" si="1"/>
+        <v>1.4793821892249086</v>
+      </c>
+      <c r="J11" s="46">
+        <v>5</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5771,6 +5853,278 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
+    <col min="8" max="9" width="8.5703125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="53.42578125" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="2:11" ht="78" customHeight="1">
+      <c r="B5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="102"/>
+      <c r="J5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="21">
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="2:11" ht="30.75">
+      <c r="B7" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="96">
+        <v>0.1026</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="80">
+        <f>Sdend_Comb_Coupled!F7*Sd_Comb_Coupled!G7/Sdend_Comb_Coupled!G7</f>
+        <v>111.92617377185681</v>
+      </c>
+      <c r="G7" s="80">
+        <v>192.17060000000001</v>
+      </c>
+      <c r="H7" s="80">
+        <v>0</v>
+      </c>
+      <c r="I7" s="80">
+        <f>Sdend_Comb_Coupled!I7*Sd_Comb_Coupled!G7/Sdend_Comb_Coupled!G7</f>
+        <v>0.71843962864279776</v>
+      </c>
+      <c r="J7" s="46">
+        <v>1</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="30.75" customHeight="1">
+      <c r="B8" s="93"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="59">
+        <f>Sdend_Comb_Coupled!F8/Sdend_Comb_Coupled!G8*Sd_Comb_Coupled!G8</f>
+        <v>124.18250874271442</v>
+      </c>
+      <c r="G8" s="51">
+        <v>213.214</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0</v>
+      </c>
+      <c r="I8" s="51">
+        <f>Sdend_Comb_Coupled!I8/Sdend_Comb_Coupled!G8*Sd_Comb_Coupled!G8</f>
+        <v>0.7971114571190675</v>
+      </c>
+      <c r="J8" s="46">
+        <v>2</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="33" customHeight="1">
+      <c r="B9" s="93"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="59">
+        <f>Sdend_Comb_Coupled!F9</f>
+        <v>171.1</v>
+      </c>
+      <c r="G9" s="59">
+        <f>Sdend_Comb_Coupled!G9</f>
+        <v>338.5</v>
+      </c>
+      <c r="H9" s="59">
+        <f>Sdend_Comb_Coupled!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <f>Sdend_Comb_Coupled!I9</f>
+        <v>1.161</v>
+      </c>
+      <c r="J9" s="46">
+        <v>3</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="30.75">
+      <c r="B10" s="93"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="59">
+        <f>Sdend_Comb_Coupled!F10</f>
+        <v>185.48048744460857</v>
+      </c>
+      <c r="G10" s="59">
+        <f>Sdend_Comb_Coupled!G10</f>
+        <v>366.95</v>
+      </c>
+      <c r="H10" s="59">
+        <f>Sdend_Comb_Coupled!H10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="59">
+        <f>Sdend_Comb_Coupled!I10</f>
+        <v>1.2585788774002955</v>
+      </c>
+      <c r="J10" s="46">
+        <v>4</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="30.75">
+      <c r="B11" s="93"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="59">
+        <f>F10*($D7+0.035)/$D7</f>
+        <v>248.75355821031326</v>
+      </c>
+      <c r="G11" s="59">
+        <f t="shared" ref="G11:I11" si="0">G10*($D7+0.035)/$D7</f>
+        <v>492.12787524366473</v>
+      </c>
+      <c r="H11" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="59">
+        <f t="shared" si="0"/>
+        <v>1.6879186503925991</v>
+      </c>
+      <c r="J11" s="46">
+        <v>5</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="45.75">
+      <c r="B12" s="94"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="59">
+        <f>F10*($D7+0.0875)/$D7</f>
+        <v>343.66316435887029</v>
+      </c>
+      <c r="G12" s="59">
+        <f t="shared" ref="G12:I12" si="1">G10*($D7+0.0875)/$D7</f>
+        <v>679.89468810916173</v>
+      </c>
+      <c r="H12" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="59">
+        <f t="shared" si="1"/>
+        <v>2.3319283098810546</v>
+      </c>
+      <c r="J12" s="46">
+        <v>10</v>
+      </c>
+      <c r="K12" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B5:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5789,22 +6143,22 @@
   <sheetData>
     <row r="5" spans="2:13" ht="56.25">
       <c r="B5" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="105"/>
+        <v>47</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="106"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -5812,27 +6166,27 @@
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="106">
+      <c r="B6" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="107">
         <v>0.15</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="12">
         <v>6.1836006440000002</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="14">
         <f>E6/C$6</f>
         <v>41.224004293333337</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -5841,23 +6195,23 @@
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="30">
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="12">
         <v>6.4341176859100697</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" ref="G7:G12" si="0">E7/C$6</f>
         <v>42.89411790606713</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -5866,23 +6220,23 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="2:13" ht="30">
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="12">
         <v>6.8170688836236701</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>45.447125890824466</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -5891,23 +6245,23 @@
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="2:13" ht="30">
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="12">
         <v>7.5046138846427999</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>50.030759230952</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -5916,23 +6270,23 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13" ht="30">
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="12">
         <v>7.9447987100000006</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>52.96532473333334</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -5941,23 +6295,23 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="30">
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="12">
         <v>8.8970471914285714</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>59.313647942857145</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -5966,23 +6320,23 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13" ht="30">
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="12">
         <v>9.5500744285714294</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>63.667162857142863</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -6005,27 +6359,27 @@
       <c r="M13" s="15"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="107" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="107">
+      <c r="B14" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="108">
         <v>0.25</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="12">
         <v>9.1746298235346497</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="14">
         <f>E14/C$14</f>
         <v>36.698519294138599</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -6034,27 +6388,27 @@
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="2:13" ht="30">
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="11" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E15" s="12">
         <f>E14*0.25/0.15</f>
         <v>15.291049705891083</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="14">
         <f>E15/C$14</f>
         <v>61.164198823564334</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -6062,8 +6416,8 @@
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="18"/>
       <c r="E16" s="14"/>
       <c r="F16" s="13"/>
@@ -6090,14 +6444,14 @@
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="107">
+      <c r="B18" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="108">
         <v>0.1</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E18" s="23">
         <f>170.755</f>
@@ -6111,7 +6465,7 @@
         <v>1707.55</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -6120,10 +6474,10 @@
       <c r="M18" s="15"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E19" s="23">
         <f>2.44*82</f>
@@ -6137,7 +6491,7 @@
         <v>2000.7999999999997</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -6146,10 +6500,10 @@
       <c r="M19" s="15"/>
     </row>
     <row r="20" spans="2:13" ht="30">
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E20" s="23">
         <f>E19*100/82</f>
@@ -6163,10 +6517,10 @@
         <v>2440</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -6174,10 +6528,10 @@
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E21" s="24">
         <f>E19*130/82</f>
@@ -6191,10 +6545,10 @@
         <v>3171.9999999999995</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -6216,14 +6570,14 @@
       <c r="M22" s="15"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="107" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="107">
+      <c r="B23" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="108">
         <v>0.1</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E23" s="23">
         <v>170.19300000000001</v>
@@ -6236,7 +6590,7 @@
         <v>1701.93</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -6245,10 +6599,10 @@
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E24" s="23">
         <f>2.58609*82</f>
@@ -6262,7 +6616,7 @@
         <v>2120.5938000000001</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -6271,10 +6625,10 @@
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="2:13" ht="30">
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E25" s="23">
         <f>E24*100/82</f>
@@ -6288,10 +6642,10 @@
         <v>2586.09</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -6299,10 +6653,10 @@
       <c r="M25" s="15"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E26" s="24">
         <f>E24*130/82</f>
@@ -6316,10 +6670,10 @@
         <v>3361.9169999999999</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -6341,14 +6695,14 @@
       <c r="M27" s="15"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="107">
+      <c r="B28" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="108">
         <v>0.1</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E28" s="23">
         <v>117.782</v>
@@ -6361,7 +6715,7 @@
         <v>1177.82</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -6370,10 +6724,10 @@
       <c r="M28" s="15"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="11" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E29" s="23">
         <f>2.1*66.6666666666667</f>
@@ -6387,7 +6741,7 @@
         <v>1400.0000000000007</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -6396,10 +6750,10 @@
       <c r="M29" s="15"/>
     </row>
     <row r="30" spans="2:13" ht="30">
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E30" s="23">
         <f>E29*100/66.6</f>
@@ -6413,10 +6767,10 @@
         <v>2102.1021021021033</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
@@ -6424,10 +6778,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
       <c r="D31" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E31" s="24">
         <f>E29*130/82</f>
@@ -6441,10 +6795,10 @@
         <v>2219.5121951219526</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -6466,14 +6820,14 @@
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="107" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="107">
+      <c r="B33" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="108">
         <v>0.1</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E33" s="23">
         <v>210.4</v>
@@ -6486,7 +6840,7 @@
         <v>2104</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -6495,10 +6849,10 @@
       <c r="M33" s="15"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E34" s="23">
         <f>2.72*86.4</f>
@@ -6512,7 +6866,7 @@
         <v>2350.0800000000004</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -6521,10 +6875,10 @@
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="2:13" ht="30">
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E35" s="23">
         <f>100/86.4*E34</f>
@@ -6538,10 +6892,10 @@
         <v>2720.0000000000005</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -6549,10 +6903,10 @@
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E36" s="24">
         <f>E34*130/82</f>
@@ -6566,10 +6920,10 @@
         <v>3725.7365853658539</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
@@ -6591,27 +6945,27 @@
       <c r="M37" s="15"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="107" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" s="107">
+      <c r="B38" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="108">
         <v>0.1</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E38" s="23">
         <v>6589.73</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="G38" s="23">
         <f>E38/C$38</f>
         <v>65897.299999999988</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
@@ -6620,26 +6974,26 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="11" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E39" s="23">
         <v>6589.73</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="G39" s="23">
         <f>E39/C$38</f>
         <v>65897.299999999988</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -6661,27 +7015,27 @@
       <c r="M40" s="15"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="106" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="106">
+      <c r="B41" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="107">
         <v>0.1</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E41" s="23">
         <v>2850.71</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="G41" s="23">
         <f>E41/C$38</f>
         <v>28507.1</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -6690,26 +7044,26 @@
       <c r="M41" s="15"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="11" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E42" s="23">
         <v>2850.71</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="G42" s="23">
         <f>E42/C$38</f>
         <v>28507.1</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
@@ -6731,12 +7085,12 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="110" t="s">
-        <v>52</v>
+      <c r="B44" s="111" t="s">
+        <v>53</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="19"/>
@@ -6744,7 +7098,7 @@
         <v>8.7266221419519994</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
@@ -6753,10 +7107,10 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="30">
-      <c r="B45" s="111"/>
+      <c r="B45" s="112"/>
       <c r="C45" s="28"/>
       <c r="D45" s="11" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="19"/>
@@ -6764,10 +7118,10 @@
         <v>4</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
@@ -6775,10 +7129,10 @@
       <c r="M45" s="15"/>
     </row>
     <row r="46" spans="2:13" ht="30">
-      <c r="B46" s="111"/>
+      <c r="B46" s="112"/>
       <c r="C46" s="28"/>
       <c r="D46" s="11" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="19"/>
@@ -6786,10 +7140,10 @@
         <v>10</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
@@ -6797,10 +7151,10 @@
       <c r="M46" s="15"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="111"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="28"/>
       <c r="D47" s="11" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="19"/>
@@ -6813,10 +7167,10 @@
       <c r="M47" s="15"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="111"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="28"/>
       <c r="D48" s="30" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="19"/>
@@ -6825,7 +7179,7 @@
         <v>8.3775572562739189</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -6834,10 +7188,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="111"/>
+      <c r="B49" s="112"/>
       <c r="C49" s="28"/>
       <c r="D49" s="30" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="19"/>
@@ -6846,7 +7200,7 @@
         <v>9.0756870276300798</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
@@ -6855,10 +7209,10 @@
       <c r="M49" s="15"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="111"/>
+      <c r="B50" s="112"/>
       <c r="C50" s="28"/>
       <c r="D50" s="11" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="19"/>
@@ -6871,10 +7225,10 @@
       <c r="M50" s="15"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="111"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="28"/>
       <c r="D51" s="30" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="19"/>
@@ -6883,7 +7237,7 @@
         <v>7.8539599277568</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
@@ -6892,10 +7246,10 @@
       <c r="M51" s="15"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="111"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="28"/>
       <c r="D52" s="30" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="19"/>
@@ -6904,7 +7258,7 @@
         <v>9.5992843561471997</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
@@ -6913,10 +7267,10 @@
       <c r="M52" s="15"/>
     </row>
     <row r="53" spans="2:13" ht="30">
-      <c r="B53" s="111"/>
+      <c r="B53" s="112"/>
       <c r="C53" s="28"/>
       <c r="D53" s="11" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="19"/>
@@ -6924,10 +7278,10 @@
         <v>10.95</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
@@ -6935,10 +7289,10 @@
       <c r="M53" s="15"/>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="111"/>
+      <c r="B54" s="112"/>
       <c r="C54" s="28"/>
       <c r="D54" s="30" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="19"/>
@@ -6947,7 +7301,7 @@
         <v>9.8550000000000004</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
@@ -6956,10 +7310,10 @@
       <c r="M54" s="15"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="112"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="28"/>
       <c r="D55" s="30" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="19"/>
@@ -6968,7 +7322,7 @@
         <v>12.045</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
@@ -6977,12 +7331,12 @@
       <c r="M55" s="15"/>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="113" t="s">
-        <v>72</v>
+      <c r="B56" s="114" t="s">
+        <v>73</v>
       </c>
       <c r="C56" s="28"/>
       <c r="D56" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="19"/>
@@ -6990,7 +7344,7 @@
         <v>8.6680616642047994</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -6999,10 +7353,10 @@
       <c r="M56" s="15"/>
     </row>
     <row r="57" spans="2:13" ht="30">
-      <c r="B57" s="113"/>
+      <c r="B57" s="114"/>
       <c r="C57" s="28"/>
       <c r="D57" s="11" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="19"/>
@@ -7010,7 +7364,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -7019,10 +7373,10 @@
       <c r="M57" s="15"/>
     </row>
     <row r="58" spans="2:13" ht="30">
-      <c r="B58" s="113"/>
+      <c r="B58" s="114"/>
       <c r="C58" s="28"/>
       <c r="D58" s="11" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="19"/>
@@ -7030,10 +7384,10 @@
         <v>10</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
@@ -7041,10 +7395,10 @@
       <c r="M58" s="15"/>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="113"/>
+      <c r="B59" s="114"/>
       <c r="C59" s="28"/>
       <c r="D59" s="11" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="19"/>
@@ -7057,10 +7411,10 @@
       <c r="M59" s="15"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="113"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="28"/>
       <c r="D60" s="30" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="19"/>
@@ -7069,7 +7423,7 @@
         <v>8.3213391976366076</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
@@ -7078,10 +7432,10 @@
       <c r="M60" s="15"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="113"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="28"/>
       <c r="D61" s="30" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="19"/>
@@ -7090,7 +7444,7 @@
         <v>9.0147841307729912</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
@@ -7099,10 +7453,10 @@
       <c r="M61" s="15"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="113"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="28"/>
       <c r="D62" s="11" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="19"/>
@@ -7115,10 +7469,10 @@
       <c r="M62" s="15"/>
     </row>
     <row r="63" spans="2:13">
-      <c r="B63" s="113"/>
+      <c r="B63" s="114"/>
       <c r="C63" s="28"/>
       <c r="D63" s="30" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="19"/>
@@ -7127,7 +7481,7 @@
         <v>7.8012554977843198</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
@@ -7136,10 +7490,10 @@
       <c r="M63" s="15"/>
     </row>
     <row r="64" spans="2:13">
-      <c r="B64" s="113"/>
+      <c r="B64" s="114"/>
       <c r="C64" s="28"/>
       <c r="D64" s="30" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="19"/>
@@ -7148,7 +7502,7 @@
         <v>9.5348678306252808</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
@@ -7157,10 +7511,10 @@
       <c r="M64" s="15"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="113"/>
+      <c r="B65" s="114"/>
       <c r="C65" s="28"/>
       <c r="D65" s="11" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="19"/>
@@ -7169,7 +7523,7 @@
         <v>10.95</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -7178,10 +7532,10 @@
       <c r="M65" s="15"/>
     </row>
     <row r="66" spans="2:13">
-      <c r="B66" s="113"/>
+      <c r="B66" s="114"/>
       <c r="C66" s="28"/>
       <c r="D66" s="30" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="19"/>
@@ -7190,7 +7544,7 @@
         <v>9.8550000000000004</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -7199,10 +7553,10 @@
       <c r="M66" s="15"/>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="113"/>
+      <c r="B67" s="114"/>
       <c r="C67" s="28"/>
       <c r="D67" s="30" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="19"/>
@@ -7211,7 +7565,7 @@
         <v>12.045</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
@@ -7250,8 +7604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I20"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7270,32 +7624,32 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75">
       <c r="C2" s="62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="63">
         <v>4.2100972347020704</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="75"/>
+        <v>57</v>
+      </c>
+      <c r="G2" s="73"/>
       <c r="I2" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75">
       <c r="C3" s="62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="63">
         <v>8.7266221419519994</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="75"/>
+        <v>59</v>
+      </c>
+      <c r="G3" s="73"/>
       <c r="I3" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -7303,46 +7657,46 @@
     </row>
     <row r="5" spans="2:11" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="85"/>
       <c r="H5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>50</v>
-      </c>
       <c r="G6" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="28"/>
@@ -7350,11 +7704,11 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
-        <v>52</v>
+      <c r="B7" s="86" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="59">
         <f>(1-0.04)*D3</f>
@@ -7376,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" s="59">
         <f>D7/Info!H$3</f>
@@ -7388,9 +7742,9 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="30.75">
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="59">
         <f>(1-0.1)*D3</f>
@@ -7412,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" s="59">
         <f>D8/Info!H$3</f>
@@ -7424,9 +7778,9 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="90.75" customHeight="1">
-      <c r="B9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="59">
         <f>-0.04*D3</f>
@@ -7447,8 +7801,8 @@
       <c r="H9" s="46">
         <v>10</v>
       </c>
-      <c r="I9" s="88" t="s">
-        <v>68</v>
+      <c r="I9" s="89" t="s">
+        <v>69</v>
       </c>
       <c r="J9" s="59">
         <f>D9/Info!H$3</f>
@@ -7460,9 +7814,9 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="30.75">
-      <c r="B10" s="85"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="59">
         <f>-0.1*D3</f>
@@ -7483,7 +7837,7 @@
       <c r="H10" s="46">
         <v>11</v>
       </c>
-      <c r="I10" s="89"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="59">
         <f>D10/Info!H$3</f>
         <v>-8.7191000000000005E-2</v>
@@ -7494,20 +7848,20 @@
       </c>
     </row>
     <row r="17" spans="8:9">
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" spans="8:9">
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" spans="8:9">
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="8:9">
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7525,7 +7879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -7547,7 +7901,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75">
       <c r="C2" s="62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="64">
         <v>0.52396124788699117</v>
@@ -7557,18 +7911,18 @@
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75">
       <c r="C3" s="62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="65">
         <v>662.181756917077</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
@@ -7578,40 +7932,40 @@
     </row>
     <row r="5" spans="2:7" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="86"/>
+        <v>47</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="87"/>
       <c r="F5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
-        <v>72</v>
+      <c r="B7" s="86" t="s">
+        <v>73</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="59">
         <v>0</v>
@@ -7626,9 +7980,9 @@
       <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7" ht="30.75">
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="59">
         <v>0</v>
@@ -7643,9 +7997,9 @@
       <c r="G8" s="50"/>
     </row>
     <row r="9" spans="2:7" ht="18.75">
-      <c r="B9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="59">
         <v>0</v>
@@ -7672,8 +8026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7682,7 +8036,8 @@
     <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" style="15" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="15" customWidth="1"/>
-    <col min="5" max="7" width="9.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="15" customWidth="1"/>
+    <col min="6" max="7" width="11.140625" style="15" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="15" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" style="15" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="15" customWidth="1"/>
@@ -7692,77 +8047,77 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75">
       <c r="C2" s="62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="63">
         <v>8.5367398822081793</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
-      <c r="H2" s="75"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="15.75">
       <c r="C3" s="62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="63">
         <v>8.6665854759732497</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
-      <c r="H3" s="75"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:11">
       <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:11" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="86"/>
+        <v>47</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="87"/>
       <c r="H5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="21">
       <c r="B6" s="35"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>50</v>
-      </c>
       <c r="G6" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="28"/>
@@ -7770,11 +8125,11 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
-        <v>72</v>
+      <c r="B7" s="86" t="s">
+        <v>73</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="59">
         <f>(1-0.04)*D3</f>
@@ -7796,7 +8151,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" s="59">
         <f>D7/Info!H$3</f>
@@ -7808,9 +8163,9 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="30.75">
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="59">
         <f>(1-0.1)*D3</f>
@@ -7832,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" s="59">
         <f>D8/Info!H$3</f>
@@ -7844,9 +8199,9 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="30.75">
-      <c r="B9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="59">
         <f>-0.04*D3</f>
@@ -7868,7 +8223,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" s="59">
         <f>D9/Info!H$3</f>
@@ -7880,9 +8235,9 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="30.75">
-      <c r="B10" s="85"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="59">
         <f>-0.1*D3</f>
@@ -7914,44 +8269,20 @@
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="F15" s="77">
-        <f>F7</f>
-        <v>8.1952702869198522</v>
-      </c>
-      <c r="G15" s="77">
-        <f>G7</f>
-        <v>8.8782094774965064</v>
-      </c>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="F16" s="77">
-        <f t="shared" ref="F16:G16" si="0">F8</f>
-        <v>7.6830658939873615</v>
-      </c>
-      <c r="G16" s="77">
-        <f t="shared" si="0"/>
-        <v>9.3904138704289988</v>
-      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="77">
-        <f t="shared" ref="F17:G17" si="1">F9</f>
-        <v>-0.34146959528832715</v>
-      </c>
-      <c r="G17" s="77">
-        <f t="shared" si="1"/>
-        <v>11.125574545406867</v>
-      </c>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="77">
-        <f t="shared" ref="F18:G18" si="2">F10</f>
-        <v>-0.85367398822081797</v>
-      </c>
-      <c r="G18" s="77">
-        <f t="shared" si="2"/>
-        <v>11.637778938339357</v>
-      </c>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7968,8 +8299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7994,41 +8325,41 @@
     </row>
     <row r="5" spans="2:14" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="45">
@@ -8037,15 +8368,15 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
       <c r="J6" s="48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -8053,17 +8384,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="18.75">
-      <c r="B7" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.25</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.24399999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -8097,11 +8428,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75">
-      <c r="B8" s="92"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -8135,11 +8466,11 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="92"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -8173,11 +8504,11 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="30.75">
-      <c r="B10" s="92"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -8211,11 +8542,11 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="92"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
@@ -8249,11 +8580,11 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="30.75">
-      <c r="B12" s="92"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
@@ -8287,11 +8618,11 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="30.75">
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" s="44">
         <v>0</v>
@@ -8304,7 +8635,7 @@
         <v>66.319961309523819</v>
       </c>
       <c r="I13" s="46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="44">
@@ -8340,7 +8671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -8365,41 +8696,41 @@
     </row>
     <row r="5" spans="2:14" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -8408,10 +8739,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -8422,17 +8753,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.15</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.14399999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7" s="59">
         <v>0</v>
@@ -8466,11 +8797,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="30.75">
-      <c r="B8" s="85"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="59">
         <v>0</v>
@@ -8504,11 +8835,11 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="85"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="59">
         <v>0</v>
@@ -8523,7 +8854,9 @@
       <c r="I9" s="46">
         <v>1</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="J9" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="K9" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8542,11 +8875,11 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="30.75">
-      <c r="B10" s="85"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" s="59">
         <v>0</v>
@@ -8561,7 +8894,9 @@
       <c r="I10" s="46">
         <v>2</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="K10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8580,11 +8915,11 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="85"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" s="59">
         <v>0</v>
@@ -8599,7 +8934,9 @@
       <c r="I11" s="46">
         <v>3</v>
       </c>
-      <c r="J11" s="28"/>
+      <c r="J11" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="K11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8618,11 +8955,11 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="30.75">
-      <c r="B12" s="85"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="39" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F12" s="59">
         <v>0</v>
@@ -8637,7 +8974,9 @@
       <c r="I12" s="46">
         <v>4</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="K12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8656,11 +8995,11 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="30.75">
-      <c r="B13" s="85"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="39" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F13" s="59">
         <v>0</v>
@@ -8673,9 +9012,11 @@
         <v>66.319961309523819</v>
       </c>
       <c r="I13" s="46">
-        <v>10</v>
-      </c>
-      <c r="J13" s="28"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="K13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8694,11 +9035,11 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="45.75">
-      <c r="B14" s="85"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F14" s="59">
         <v>0</v>
@@ -8712,10 +9053,10 @@
         <v>93.953278521825411</v>
       </c>
       <c r="I14" s="46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K14" s="44">
         <f t="shared" si="1"/>
@@ -8772,41 +9113,41 @@
     </row>
     <row r="5" spans="2:14" ht="56.25" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -8815,10 +9156,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -8829,17 +9170,17 @@
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="50.25" customHeight="1">
-      <c r="B7" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="94">
+      <c r="B7" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.05</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.05</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F7" s="59">
         <v>0</v>
@@ -8874,11 +9215,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="30.75">
-      <c r="B8" s="85"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="50" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F8" s="59">
         <v>0</v>
@@ -8931,8 +9272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8953,7 +9294,7 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H2" s="40"/>
     </row>
@@ -8962,41 +9303,41 @@
     </row>
     <row r="5" spans="2:14" ht="72.75" customHeight="1">
       <c r="B5" s="35" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="91"/>
       <c r="H5" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="21">
@@ -9005,10 +9346,10 @@
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="42"/>
@@ -9018,18 +9359,18 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B7" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="94">
+    <row r="7" spans="2:14" ht="29.25" customHeight="1">
+      <c r="B7" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="95">
         <v>0.15</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="95">
         <v>0.14399999999999999</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7" s="44">
         <v>0</v>
@@ -9045,8 +9386,8 @@
       <c r="I7" s="46">
         <v>1</v>
       </c>
-      <c r="J7" s="41" t="s">
-        <v>106</v>
+      <c r="J7" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="K7" s="44">
         <f>F7/C$7</f>
@@ -9066,11 +9407,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="30.75">
-      <c r="B8" s="85"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="44">
         <v>0</v>
@@ -9105,11 +9446,11 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="30.75">
-      <c r="B9" s="85"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
@@ -9144,11 +9485,11 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="30.75">
-      <c r="B10" s="85"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" s="44">
         <v>0</v>
@@ -9183,11 +9524,11 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="30.75">
-      <c r="B11" s="85"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" s="44">
         <v>0</v>
@@ -9222,11 +9563,11 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="30.75">
-      <c r="B12" s="85"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
@@ -9261,11 +9602,11 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="30.75">
-      <c r="B13" s="85"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="39" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F13" s="44">
         <v>0</v>
@@ -9281,7 +9622,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K13" s="44">
         <f t="shared" si="1"/>
@@ -9301,11 +9642,11 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="45.75">
-      <c r="B14" s="85"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F14" s="44">
         <v>0</v>
@@ -9321,7 +9662,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K14" s="44">
         <f t="shared" si="1"/>
@@ -9347,26 +9688,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f65c3edb-e908-4fa9-b879-d5122fbc6460" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100727DF2EBD128B7439A97AA0AFC5008D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="3526578aec713d4a9f9585ce213b7960">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3" xmlns:ns3="f65c3edb-e908-4fa9-b879-d5122fbc6460" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87a95d49f416f1b914535e988a0529a7" ns2:_="" ns3:_="">
     <xsd:import namespace="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3"/>
@@ -9595,14 +9916,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f65c3edb-e908-4fa9-b879-d5122fbc6460" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="08f0ca5a-632f-40ae-b61e-2da6efdfe5d3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5BBEA7-67A3-432A-AE03-2A734A9CF25D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BFA4ABD-F06E-4696-B388-A2D2A8A7DCAB}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C6A622-D92B-4BBB-8157-73A661038BDE}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5BBEA7-67A3-432A-AE03-2A734A9CF25D}"/>
 </file>